--- a/assets/fleet/9245263_sofia/test/SSS_Sofia_test2.xlsx
+++ b/assets/fleet/9245263_sofia/test/SSS_Sofia_test2.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\MERENKOV\Desktop\Капитан\sss\assets\fleet\9245263_sofia\test\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B3B9E9FD-2B42-4102-8A0E-FB7FBF5CA1A6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B5930534-E947-4AC4-BE7F-0A30AC8C3DCD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="903" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="903" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="General" sheetId="59" r:id="rId1"/>
@@ -593,9 +593,6 @@
     <t xml:space="preserve">Осадка на кормовом перпендикуляре                               </t>
   </si>
   <si>
-    <t>Осадка средняя                                                  </t>
-  </si>
-  <si>
     <t>Осадка на носовом перпендикуляре                                </t>
   </si>
   <si>
@@ -861,6 +858,9 @@
   </si>
   <si>
     <t xml:space="preserve">Поперечная метацентрическая высота исправленная                 </t>
+  </si>
+  <si>
+    <t>Осадка в цт площади ватерлинии                                                 </t>
   </si>
 </sst>
 </file>
@@ -1382,31 +1382,31 @@
         <v>72</v>
       </c>
       <c r="B3" s="9" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="B4" s="9" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="B5" s="9" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
     </row>
     <row r="6" spans="1:2" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="B6" s="11" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
     </row>
   </sheetData>
@@ -1459,7 +1459,7 @@
         <v>56</v>
       </c>
       <c r="E1" s="14" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="F1" s="4"/>
       <c r="G1" s="4"/>
@@ -1478,7 +1478,7 @@
         <v>0</v>
       </c>
       <c r="E2" s="10" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
@@ -1495,7 +1495,7 @@
         <v>0</v>
       </c>
       <c r="E3" s="10" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
@@ -1512,7 +1512,7 @@
         <v>227.2</v>
       </c>
       <c r="E4" s="10" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
@@ -1529,7 +1529,7 @@
         <v>71.400000000000006</v>
       </c>
       <c r="E5" s="10" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
@@ -1546,7 +1546,7 @@
         <v>240.2</v>
       </c>
       <c r="E6" s="10" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
@@ -1563,7 +1563,7 @@
         <v>129.80000000000001</v>
       </c>
       <c r="E7" s="10" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
@@ -1580,7 +1580,7 @@
         <v>0</v>
       </c>
       <c r="E8" s="10" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
@@ -1597,7 +1597,7 @@
         <v>0</v>
       </c>
       <c r="E9" s="10" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
@@ -1614,7 +1614,7 @@
         <v>0</v>
       </c>
       <c r="E10" s="10" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
@@ -1631,7 +1631,7 @@
         <v>128.4</v>
       </c>
       <c r="E11" s="10" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
@@ -1648,7 +1648,7 @@
         <v>0</v>
       </c>
       <c r="E12" s="10" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
@@ -1665,7 +1665,7 @@
         <v>109.3</v>
       </c>
       <c r="E13" s="10" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
@@ -1682,7 +1682,7 @@
         <v>129.9</v>
       </c>
       <c r="E14" s="10" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
@@ -1699,7 +1699,7 @@
         <v>129.9</v>
       </c>
       <c r="E15" s="10" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
@@ -1716,7 +1716,7 @@
         <v>0</v>
       </c>
       <c r="E16" s="10" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
@@ -1733,7 +1733,7 @@
         <v>0</v>
       </c>
       <c r="E17" s="10" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
@@ -1750,7 +1750,7 @@
         <v>97.5</v>
       </c>
       <c r="E18" s="10" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
@@ -1767,7 +1767,7 @@
         <v>97.5</v>
       </c>
       <c r="E19" s="10" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
@@ -1784,7 +1784,7 @@
         <v>265.7</v>
       </c>
       <c r="E20" s="10" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
@@ -1801,7 +1801,7 @@
         <v>265.7</v>
       </c>
       <c r="E21" s="10" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.25">
@@ -1818,7 +1818,7 @@
         <v>206.4</v>
       </c>
       <c r="E22" s="10" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.25">
@@ -1835,7 +1835,7 @@
         <v>217.2</v>
       </c>
       <c r="E23" s="10" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.25">
@@ -1852,7 +1852,7 @@
         <v>6.6</v>
       </c>
       <c r="E24" s="10" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.25">
@@ -1869,7 +1869,7 @@
         <v>15</v>
       </c>
       <c r="E25" s="10" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.25">
@@ -1886,7 +1886,7 @@
         <v>7.8</v>
       </c>
       <c r="E26" s="10" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.25">
@@ -1903,7 +1903,7 @@
         <v>10</v>
       </c>
       <c r="E27" s="10" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.25">
@@ -1920,7 +1920,7 @@
         <v>0</v>
       </c>
       <c r="E28" s="10" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.25">
@@ -1937,7 +1937,7 @@
         <v>0</v>
       </c>
       <c r="E29" s="10" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.25">
@@ -1954,7 +1954,7 @@
         <v>0</v>
       </c>
       <c r="E30" s="10" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.25">
@@ -1971,7 +1971,7 @@
         <v>0</v>
       </c>
       <c r="E31" s="10" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.25">
@@ -1988,7 +1988,7 @@
         <v>2</v>
       </c>
       <c r="E32" s="10" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.25">
@@ -2005,7 +2005,7 @@
         <v>17</v>
       </c>
       <c r="E33" s="10" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.25">
@@ -2022,7 +2022,7 @@
         <v>0</v>
       </c>
       <c r="E34" s="10" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.25">
@@ -2039,7 +2039,7 @@
         <v>0.5</v>
       </c>
       <c r="E35" s="10" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.25">
@@ -2056,7 +2056,7 @@
         <v>4.4000000000000004</v>
       </c>
       <c r="E36" s="10" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.25">
@@ -2073,7 +2073,7 @@
         <v>3</v>
       </c>
       <c r="E37" s="10" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.25">
@@ -2090,7 +2090,7 @@
         <v>0</v>
       </c>
       <c r="E38" s="10" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.25">
@@ -2107,7 +2107,7 @@
         <v>1.8</v>
       </c>
       <c r="E39" s="10" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.25">
@@ -2124,7 +2124,7 @@
         <v>0</v>
       </c>
       <c r="E40" s="10" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.25">
@@ -2141,7 +2141,7 @@
         <v>0</v>
       </c>
       <c r="E41" s="10" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.25">
@@ -2158,7 +2158,7 @@
         <v>0.4</v>
       </c>
       <c r="E42" s="10" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.25">
@@ -2175,7 +2175,7 @@
         <v>6.7</v>
       </c>
       <c r="E43" s="10" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.25">
@@ -2192,7 +2192,7 @@
         <v>0.3</v>
       </c>
       <c r="E44" s="10" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.25">
@@ -2209,7 +2209,7 @@
         <v>0</v>
       </c>
       <c r="E45" s="10" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.25">
@@ -2226,7 +2226,7 @@
         <v>0</v>
       </c>
       <c r="E46" s="10" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.25">
@@ -2243,7 +2243,7 @@
         <v>0</v>
       </c>
       <c r="E47" s="10" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.25">
@@ -2260,7 +2260,7 @@
         <v>8.4</v>
       </c>
       <c r="E48" s="10" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.25">
@@ -2277,7 +2277,7 @@
         <v>6</v>
       </c>
       <c r="E49" s="10" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.25">
@@ -2294,7 +2294,7 @@
         <v>6</v>
       </c>
       <c r="E50" s="10" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.25">
@@ -2311,7 +2311,7 @@
         <v>3.6</v>
       </c>
       <c r="E51" s="10" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.25">
@@ -2328,7 +2328,7 @@
         <v>3.6</v>
       </c>
       <c r="E52" s="10" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.25">
@@ -2345,7 +2345,7 @@
         <v>0</v>
       </c>
       <c r="E53" s="10" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
     </row>
   </sheetData>
@@ -2396,7 +2396,7 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="7" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="B2" s="3" t="s">
         <v>54</v>
@@ -2409,12 +2409,12 @@
         <v>900.2</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="7" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="B3" s="3" t="s">
         <v>54</v>
@@ -2427,12 +2427,12 @@
         <v>51.3</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="7" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="B4" s="3" t="s">
         <v>54</v>
@@ -2445,12 +2445,12 @@
         <v>617.70000000000005</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="7" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="B5" s="3" t="s">
         <v>54</v>
@@ -2463,12 +2463,12 @@
         <v>51.3</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="7" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="B6" s="3" t="s">
         <v>54</v>
@@ -2481,12 +2481,12 @@
         <v>256.39999999999998</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="7" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="B7" s="3" t="s">
         <v>54</v>
@@ -2499,12 +2499,12 @@
         <v>51.3</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="7" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="B8" s="3" t="s">
         <v>54</v>
@@ -2517,12 +2517,12 @@
         <v>1493.5</v>
       </c>
       <c r="E8" s="3" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="7" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="B9" s="3" t="s">
         <v>54</v>
@@ -2535,12 +2535,12 @@
         <v>988.3</v>
       </c>
       <c r="E9" s="3" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="7" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="B10" s="3" t="s">
         <v>54</v>
@@ -2553,12 +2553,12 @@
         <v>51.3</v>
       </c>
       <c r="E10" s="3" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" s="7" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="B11" s="3" t="s">
         <v>54</v>
@@ -2571,12 +2571,12 @@
         <v>244.5</v>
       </c>
       <c r="E11" s="3" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" s="7" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="B12" s="3" t="s">
         <v>54</v>
@@ -2589,12 +2589,12 @@
         <v>51.3</v>
       </c>
       <c r="E12" s="3" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" s="7" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="B13" s="3" t="s">
         <v>54</v>
@@ -2607,12 +2607,12 @@
         <v>912.7</v>
       </c>
       <c r="E13" s="3" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" s="7" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="B14" s="3" t="s">
         <v>54</v>
@@ -2625,12 +2625,12 @@
         <v>51.3</v>
       </c>
       <c r="E14" s="3" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" s="7" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="B15" s="3" t="s">
         <v>54</v>
@@ -2643,12 +2643,12 @@
         <v>748.7</v>
       </c>
       <c r="E15" s="3" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" s="7" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="B16" s="3" t="s">
         <v>54</v>
@@ -2661,12 +2661,12 @@
         <v>51.3</v>
       </c>
       <c r="E16" s="3" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" s="7" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="B17" s="3" t="s">
         <v>54</v>
@@ -2679,12 +2679,12 @@
         <v>408.6</v>
       </c>
       <c r="E17" s="3" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" s="7" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="B18" s="3" t="s">
         <v>54</v>
@@ -2697,12 +2697,12 @@
         <v>51.3</v>
       </c>
       <c r="E18" s="3" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" s="7" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="B19" s="3" t="s">
         <v>54</v>
@@ -2715,7 +2715,7 @@
         <v>493.3</v>
       </c>
       <c r="E19" s="3" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
     </row>
   </sheetData>
@@ -2769,7 +2769,7 @@
         <v>57</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.25">
@@ -2777,7 +2777,7 @@
         <v>58</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="G3" s="1"/>
       <c r="H3" s="1"/>
@@ -3470,7 +3470,7 @@
         <v>155</v>
       </c>
       <c r="C2" s="9" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="D2" s="19" t="s">
         <v>54</v>
@@ -3493,7 +3493,7 @@
         <v>158</v>
       </c>
       <c r="C3" s="9" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="D3" s="19" t="s">
         <v>54</v>
@@ -3516,7 +3516,7 @@
         <v>159</v>
       </c>
       <c r="C4" s="9" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="D4" s="19">
         <v>0.105</v>
@@ -3539,7 +3539,7 @@
         <v>160</v>
       </c>
       <c r="C5" s="9" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="D5" s="19" t="s">
         <v>54</v>
@@ -3562,7 +3562,7 @@
         <v>161</v>
       </c>
       <c r="C6" s="9" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="D6" s="19">
         <v>0.20699999999999999</v>
@@ -3585,7 +3585,7 @@
         <v>162</v>
       </c>
       <c r="C7" s="9" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="D7" s="19">
         <v>0.10199999999999999</v>
@@ -3677,7 +3677,7 @@
         <v>166</v>
       </c>
       <c r="C11" s="9" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="D11" s="19">
         <v>53.555999999999997</v>
@@ -3700,7 +3700,7 @@
         <v>167</v>
       </c>
       <c r="C12" s="9" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="D12" s="19" t="s">
         <v>54</v>
@@ -3746,7 +3746,7 @@
         <v>169</v>
       </c>
       <c r="C14" s="9" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="D14" s="19" t="s">
         <v>54</v>
@@ -3769,7 +3769,7 @@
         <v>170</v>
       </c>
       <c r="C15" s="9" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="D15" s="19" t="s">
         <v>54</v>
@@ -3792,7 +3792,7 @@
         <v>171</v>
       </c>
       <c r="C16" s="9" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="D16" s="19">
         <v>4.0910000000000002</v>
@@ -3815,7 +3815,7 @@
         <v>172</v>
       </c>
       <c r="C17" s="9" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="D17" s="19">
         <v>0.182</v>
@@ -3863,8 +3863,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1622C7A3-F812-43D4-BDBF-973F36BAE217}">
   <dimension ref="A1:L67"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="D40" sqref="D40"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J16" sqref="J16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -3892,7 +3892,7 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="24" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="B2" s="24"/>
       <c r="C2" s="24"/>
@@ -3903,10 +3903,10 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="C3" s="9" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="D3" s="20">
         <v>13163.9</v>
@@ -3917,7 +3917,7 @@
         <v>32</v>
       </c>
       <c r="B4" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="C4" s="9" t="s">
         <v>148</v>
@@ -3931,7 +3931,7 @@
         <v>56</v>
       </c>
       <c r="B5" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="C5" s="9" t="s">
         <v>148</v>
@@ -3946,10 +3946,10 @@
         <v>12</v>
       </c>
       <c r="B6" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="C6" s="9" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="D6" s="20">
         <v>6.1909999999999998</v>
@@ -3960,7 +3960,7 @@
         <v>1</v>
       </c>
       <c r="B7" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="C7" s="9" t="s">
         <v>148</v>
@@ -3985,7 +3985,7 @@
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="24" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="B9" s="24"/>
       <c r="C9" s="24"/>
@@ -3996,7 +3996,7 @@
         <v>79</v>
       </c>
       <c r="B10" t="s">
-        <v>183</v>
+        <v>272</v>
       </c>
       <c r="C10" s="9" t="s">
         <v>148</v>
@@ -4010,7 +4010,7 @@
         <v>80</v>
       </c>
       <c r="B11" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="C11" s="9" t="s">
         <v>148</v>
@@ -4038,10 +4038,10 @@
         <v>6</v>
       </c>
       <c r="B13" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="C13" s="9" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="D13" s="20" t="s">
         <v>54</v>
@@ -4055,7 +4055,7 @@
         <v>181</v>
       </c>
       <c r="C14" s="9" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="D14" s="20">
         <v>0</v>
@@ -4066,7 +4066,7 @@
         <v>144</v>
       </c>
       <c r="B15" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="C15" s="9" t="s">
         <v>148</v>
@@ -4078,10 +4078,10 @@
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" s="9" t="s">
+        <v>215</v>
+      </c>
+      <c r="B16" t="s">
         <v>216</v>
-      </c>
-      <c r="B16" t="s">
-        <v>217</v>
       </c>
       <c r="C16" s="9" t="s">
         <v>148</v>
@@ -4092,10 +4092,10 @@
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" s="9" t="s">
+        <v>217</v>
+      </c>
+      <c r="B17" t="s">
         <v>218</v>
-      </c>
-      <c r="B17" t="s">
-        <v>219</v>
       </c>
       <c r="C17" s="9" t="s">
         <v>148</v>
@@ -4106,10 +4106,10 @@
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" s="9" t="s">
+        <v>219</v>
+      </c>
+      <c r="B18" t="s">
         <v>220</v>
-      </c>
-      <c r="B18" t="s">
-        <v>221</v>
       </c>
       <c r="C18" s="9" t="s">
         <v>148</v>
@@ -4120,10 +4120,10 @@
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" s="9" t="s">
+        <v>221</v>
+      </c>
+      <c r="B19" t="s">
         <v>222</v>
-      </c>
-      <c r="B19" t="s">
-        <v>223</v>
       </c>
       <c r="C19" s="9" t="s">
         <v>148</v>
@@ -4134,10 +4134,10 @@
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" s="9" t="s">
+        <v>223</v>
+      </c>
+      <c r="B20" t="s">
         <v>224</v>
-      </c>
-      <c r="B20" t="s">
-        <v>225</v>
       </c>
       <c r="C20" s="9" t="s">
         <v>148</v>
@@ -4148,10 +4148,10 @@
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" s="9" t="s">
+        <v>225</v>
+      </c>
+      <c r="B21" t="s">
         <v>226</v>
-      </c>
-      <c r="B21" t="s">
-        <v>227</v>
       </c>
       <c r="C21" s="9" t="s">
         <v>148</v>
@@ -4162,10 +4162,10 @@
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" s="9" t="s">
+        <v>227</v>
+      </c>
+      <c r="B22" t="s">
         <v>228</v>
-      </c>
-      <c r="B22" t="s">
-        <v>229</v>
       </c>
       <c r="C22" s="9" t="s">
         <v>148</v>
@@ -4176,10 +4176,10 @@
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" s="9" t="s">
+        <v>229</v>
+      </c>
+      <c r="B23" t="s">
         <v>230</v>
-      </c>
-      <c r="B23" t="s">
-        <v>231</v>
       </c>
       <c r="C23" s="9" t="s">
         <v>148</v>
@@ -4190,10 +4190,10 @@
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" s="9" t="s">
+        <v>231</v>
+      </c>
+      <c r="B24" t="s">
         <v>232</v>
-      </c>
-      <c r="B24" t="s">
-        <v>233</v>
       </c>
       <c r="C24" s="9" t="s">
         <v>148</v>
@@ -4204,10 +4204,10 @@
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" s="9" t="s">
+        <v>233</v>
+      </c>
+      <c r="B25" t="s">
         <v>234</v>
-      </c>
-      <c r="B25" t="s">
-        <v>235</v>
       </c>
       <c r="C25" s="9" t="s">
         <v>148</v>
@@ -4218,10 +4218,10 @@
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" s="9" t="s">
+        <v>235</v>
+      </c>
+      <c r="B26" t="s">
         <v>236</v>
-      </c>
-      <c r="B26" t="s">
-        <v>237</v>
       </c>
       <c r="C26" s="9" t="s">
         <v>148</v>
@@ -4232,10 +4232,10 @@
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" s="9" t="s">
+        <v>237</v>
+      </c>
+      <c r="B27" t="s">
         <v>238</v>
-      </c>
-      <c r="B27" t="s">
-        <v>239</v>
       </c>
       <c r="C27" s="9" t="s">
         <v>148</v>
@@ -4246,10 +4246,10 @@
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" s="9" t="s">
+        <v>239</v>
+      </c>
+      <c r="B28" t="s">
         <v>240</v>
-      </c>
-      <c r="B28" t="s">
-        <v>241</v>
       </c>
       <c r="C28" s="9" t="s">
         <v>148</v>
@@ -4260,10 +4260,10 @@
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" s="9" t="s">
+        <v>241</v>
+      </c>
+      <c r="B29" t="s">
         <v>242</v>
-      </c>
-      <c r="B29" t="s">
-        <v>243</v>
       </c>
       <c r="C29" s="9" t="s">
         <v>148</v>
@@ -4274,7 +4274,7 @@
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" s="24" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="B30" s="24"/>
       <c r="C30" s="24"/>
@@ -4285,10 +4285,10 @@
         <v>84</v>
       </c>
       <c r="B31" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="C31" s="9" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="D31" s="20">
         <v>19.655999999999999</v>
@@ -4299,10 +4299,10 @@
         <v>85</v>
       </c>
       <c r="B32" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="C32" s="9" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="D32" s="20" t="s">
         <v>54</v>
@@ -4313,10 +4313,10 @@
         <v>86</v>
       </c>
       <c r="B33" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="C33" s="9" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="D33" s="20">
         <v>187.70599999999999</v>
@@ -4327,7 +4327,7 @@
         <v>87</v>
       </c>
       <c r="B34" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="C34" s="9" t="s">
         <v>148</v>
@@ -4338,7 +4338,7 @@
     </row>
     <row r="35" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A35" s="9" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="B35" t="s">
         <v>90</v>
@@ -4370,7 +4370,7 @@
         <v>92</v>
       </c>
       <c r="B37" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="C37" s="9" t="s">
         <v>148</v>
@@ -4385,7 +4385,7 @@
         <v>16</v>
       </c>
       <c r="B38" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="C38" s="9" t="s">
         <v>148</v>
@@ -4401,7 +4401,7 @@
         <v>17</v>
       </c>
       <c r="B39" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="C39" s="9" t="s">
         <v>148</v>
@@ -4416,7 +4416,7 @@
         <v>95</v>
       </c>
       <c r="B40" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="C40" s="9" t="s">
         <v>148</v>
@@ -4518,7 +4518,7 @@
         <v>109</v>
       </c>
       <c r="C47" s="9" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="D47" s="20" t="s">
         <v>54</v>
@@ -4532,7 +4532,7 @@
         <v>111</v>
       </c>
       <c r="C48" s="9" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="D48" s="20">
         <v>872.72799999999995</v>
@@ -4589,7 +4589,7 @@
         <v>119</v>
       </c>
       <c r="C52" s="9" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="D52" s="20">
         <v>5.1710000000000003</v>
@@ -4603,7 +4603,7 @@
         <v>121</v>
       </c>
       <c r="C53" s="9" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="D53" s="20">
         <v>7.47</v>
@@ -4617,7 +4617,7 @@
         <v>123</v>
       </c>
       <c r="C54" s="9" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="D54" s="20" t="s">
         <v>54</v>
@@ -4631,7 +4631,7 @@
         <v>125</v>
       </c>
       <c r="C55" s="9" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="D55" s="20" t="s">
         <v>54</v>
@@ -4645,7 +4645,7 @@
         <v>127</v>
       </c>
       <c r="C56" s="9" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="D56" s="20" t="s">
         <v>54</v>
@@ -4659,7 +4659,7 @@
         <v>129</v>
       </c>
       <c r="C57" s="9" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="D57" s="20" t="s">
         <v>54</v>
@@ -4673,7 +4673,7 @@
         <v>131</v>
       </c>
       <c r="C58" s="9" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="D58" s="20" t="s">
         <v>54</v>
@@ -4687,7 +4687,7 @@
         <v>133</v>
       </c>
       <c r="C59" s="9" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="D59" s="20">
         <v>28.058</v>
@@ -4701,7 +4701,7 @@
         <v>135</v>
       </c>
       <c r="C60" s="9" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="D60" s="20">
         <v>49.143999999999998</v>
@@ -4715,7 +4715,7 @@
         <v>137</v>
       </c>
       <c r="C61" s="9" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="D61" s="20" t="s">
         <v>54</v>
@@ -4729,7 +4729,7 @@
         <v>139</v>
       </c>
       <c r="C62" s="9" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="D62" s="20">
         <v>565.29600000000005</v>
@@ -4743,7 +4743,7 @@
         <v>141</v>
       </c>
       <c r="C63" s="9" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="D63" s="20" t="s">
         <v>54</v>
@@ -4757,7 +4757,7 @@
         <v>143</v>
       </c>
       <c r="C64" s="9" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="D64" s="20" t="s">
         <v>54</v>

--- a/assets/fleet/9245263_sofia/test/SSS_Sofia_test2.xlsx
+++ b/assets/fleet/9245263_sofia/test/SSS_Sofia_test2.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\MERENKOV\Desktop\Капитан\sss\assets\fleet\9245263_sofia\test\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B5930534-E947-4AC4-BE7F-0A30AC8C3DCD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{51E23408-F3A5-4E57-86C0-62F5D6CCDB53}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="903" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="903" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="General" sheetId="59" r:id="rId1"/>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="540" uniqueCount="273">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="583" uniqueCount="276">
   <si>
     <t>Форпик</t>
   </si>
@@ -861,6 +861,15 @@
   </si>
   <si>
     <t>Осадка в цт площади ватерлинии                                                 </t>
+  </si>
+  <si>
+    <t>Погрешность относительная</t>
+  </si>
+  <si>
+    <t>Погрешность абсолютная</t>
+  </si>
+  <si>
+    <t>±0,5 % ширины судна</t>
   </si>
 </sst>
 </file>
@@ -961,7 +970,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="2"/>
     <xf numFmtId="3" fontId="4" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyAlignment="1">
@@ -1028,8 +1037,20 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="5">
@@ -3122,33 +3143,41 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8D2769FB-623F-4B71-8DF9-7FDDF69C0946}">
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:F9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E17" sqref="E17"/>
+      <selection activeCell="L17" sqref="L17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="3" max="3" width="10.625" customWidth="1"/>
     <col min="4" max="4" width="10.75" customWidth="1"/>
+    <col min="5" max="5" width="14.375" customWidth="1"/>
+    <col min="6" max="6" width="15.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" s="9" t="s">
+    <row r="1" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A1" s="25" t="s">
         <v>177</v>
       </c>
-      <c r="B1" s="9" t="s">
+      <c r="B1" s="25" t="s">
         <v>180</v>
       </c>
-      <c r="C1" s="9" t="s">
+      <c r="C1" s="25" t="s">
         <v>178</v>
       </c>
-      <c r="D1" s="9" t="s">
+      <c r="D1" s="25" t="s">
         <v>179</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E1" s="24" t="s">
+        <v>273</v>
+      </c>
+      <c r="F1" s="24" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="9">
         <v>18.600000000000001</v>
       </c>
@@ -3161,8 +3190,14 @@
       <c r="D2" s="9">
         <v>4709.8999999999996</v>
       </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E2" s="9">
+        <v>5</v>
+      </c>
+      <c r="F2" s="9" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="9">
         <v>36.36</v>
       </c>
@@ -3175,8 +3210,14 @@
       <c r="D3" s="9" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E3" s="9">
+        <v>5</v>
+      </c>
+      <c r="F3" s="9" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="9">
         <v>39.32</v>
       </c>
@@ -3189,8 +3230,14 @@
       <c r="D4" s="9">
         <v>-45946</v>
       </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E4" s="9">
+        <v>5</v>
+      </c>
+      <c r="F4" s="9" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="9">
         <v>53.16</v>
       </c>
@@ -3203,8 +3250,14 @@
       <c r="D5" s="9">
         <v>-59088.800000000003</v>
       </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E5" s="9">
+        <v>5</v>
+      </c>
+      <c r="F5" s="9" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="9">
         <v>91.12</v>
       </c>
@@ -3217,8 +3270,14 @@
       <c r="D6" s="9">
         <v>-28701.3</v>
       </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E6" s="9">
+        <v>5</v>
+      </c>
+      <c r="F6" s="9" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="9">
         <v>119.98</v>
       </c>
@@ -3231,6 +3290,23 @@
       <c r="D7" s="9">
         <v>306.7</v>
       </c>
+      <c r="E7" s="9">
+        <v>5</v>
+      </c>
+      <c r="F7" s="9" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E8" s="9">
+        <v>5</v>
+      </c>
+      <c r="F8" s="9" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F9" s="9"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3239,192 +3315,326 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1E5DE354-6FE8-4F4E-92DF-8FA9F59E1489}">
-  <dimension ref="A1:B22"/>
+  <dimension ref="A1:D22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J36" sqref="J36"/>
+      <selection sqref="A1:D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="11.875" style="9" customWidth="1"/>
     <col min="2" max="2" width="12.25" style="9" customWidth="1"/>
+    <col min="3" max="3" width="14.125" customWidth="1"/>
+    <col min="4" max="4" width="16" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" s="9" t="s">
+    <row r="1" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A1" s="25" t="s">
         <v>154</v>
       </c>
-      <c r="B1" s="9" t="s">
+      <c r="B1" s="25" t="s">
         <v>153</v>
       </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C1" s="24" t="s">
+        <v>273</v>
+      </c>
+      <c r="D1" s="24" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="9">
         <v>-40</v>
       </c>
       <c r="B2" s="18">
         <v>-0.72030000000000005</v>
       </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C2" s="9">
+        <v>5</v>
+      </c>
+      <c r="D2" s="9">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="9">
         <v>-35</v>
       </c>
       <c r="B3" s="18">
         <v>-0.58099999999999996</v>
       </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C3" s="9">
+        <v>5</v>
+      </c>
+      <c r="D3" s="9">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="9">
         <v>-30</v>
       </c>
       <c r="B4" s="18">
         <v>-0.47220000000000001</v>
       </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C4" s="9">
+        <v>5</v>
+      </c>
+      <c r="D4" s="9">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="9">
         <v>-25</v>
       </c>
       <c r="B5" s="18">
         <v>-0.36880000000000002</v>
       </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C5" s="9">
+        <v>5</v>
+      </c>
+      <c r="D5" s="9">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="9">
         <v>-20</v>
       </c>
       <c r="B6" s="18">
         <v>-0.26150000000000001</v>
       </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C6" s="9">
+        <v>5</v>
+      </c>
+      <c r="D6" s="9">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="9">
         <v>-15</v>
       </c>
       <c r="B7" s="18">
         <v>-0.17660000000000001</v>
       </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C7" s="9">
+        <v>5</v>
+      </c>
+      <c r="D7" s="9">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="9">
         <v>-10</v>
       </c>
       <c r="B8" s="18">
         <v>-0.1084</v>
       </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C8" s="9">
+        <v>5</v>
+      </c>
+      <c r="D8" s="9">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="9">
         <v>-5</v>
       </c>
       <c r="B9" s="18">
         <v>-5.1499999999999997E-2</v>
       </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C9" s="9">
+        <v>5</v>
+      </c>
+      <c r="D9" s="9">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="9">
         <v>0</v>
       </c>
       <c r="B10" s="18">
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C10" s="9">
+        <v>5</v>
+      </c>
+      <c r="D10" s="9">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" s="9">
         <v>5</v>
       </c>
       <c r="B11" s="18">
         <v>5.16E-2</v>
       </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C11" s="9">
+        <v>5</v>
+      </c>
+      <c r="D11" s="9">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" s="9">
         <v>10</v>
       </c>
       <c r="B12" s="18">
         <v>0.1085</v>
       </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C12" s="9">
+        <v>5</v>
+      </c>
+      <c r="D12" s="9">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" s="9">
         <v>15</v>
       </c>
       <c r="B13" s="18">
         <v>0.17660000000000001</v>
       </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C13" s="9">
+        <v>5</v>
+      </c>
+      <c r="D13" s="9">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" s="9">
         <v>20</v>
       </c>
       <c r="B14" s="18">
         <v>0.2616</v>
       </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C14" s="9">
+        <v>5</v>
+      </c>
+      <c r="D14" s="9">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" s="9">
         <v>25</v>
       </c>
       <c r="B15" s="18">
         <v>0.36890000000000001</v>
       </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C15" s="9">
+        <v>5</v>
+      </c>
+      <c r="D15" s="9">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" s="9">
         <v>30</v>
       </c>
       <c r="B16" s="18">
         <v>0.4723</v>
       </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C16" s="9">
+        <v>5</v>
+      </c>
+      <c r="D16" s="9">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" s="9">
         <v>35</v>
       </c>
       <c r="B17" s="18">
         <v>0.58099999999999996</v>
       </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C17" s="9">
+        <v>5</v>
+      </c>
+      <c r="D17" s="9">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" s="9">
         <v>40</v>
       </c>
       <c r="B18" s="18">
         <v>0.72030000000000005</v>
       </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C18" s="9">
+        <v>5</v>
+      </c>
+      <c r="D18" s="9">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" s="9">
         <v>45</v>
       </c>
       <c r="B19" s="18">
         <v>0.8367</v>
       </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C19" s="9">
+        <v>5</v>
+      </c>
+      <c r="D19" s="9">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" s="9">
         <v>50</v>
       </c>
       <c r="B20" s="18">
         <v>0.90310000000000001</v>
       </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C20" s="9">
+        <v>5</v>
+      </c>
+      <c r="D20" s="9">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" s="9">
         <v>55</v>
       </c>
       <c r="B21" s="18">
         <v>0.91379999999999995</v>
       </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C21" s="9">
+        <v>5</v>
+      </c>
+      <c r="D21" s="9">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" s="9">
         <v>60</v>
       </c>
       <c r="B22" s="18">
         <v>0.88119999999999998</v>
+      </c>
+      <c r="C22" s="9">
+        <v>5</v>
+      </c>
+      <c r="D22" s="9">
+        <v>0.05</v>
       </c>
     </row>
   </sheetData>
@@ -3437,7 +3647,7 @@
   <dimension ref="A1:G18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I28" sqref="I28"/>
+      <selection sqref="A1:F1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -3446,20 +3656,28 @@
     <col min="2" max="2" width="41.375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="13.125" customWidth="1"/>
     <col min="4" max="4" width="11" style="9" customWidth="1"/>
+    <col min="5" max="5" width="16.25" customWidth="1"/>
+    <col min="6" max="6" width="14.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1" s="19" t="s">
+    <row r="1" spans="1:7" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A1" s="27" t="s">
         <v>176</v>
       </c>
-      <c r="B1" s="19" t="s">
+      <c r="B1" s="27" t="s">
         <v>175</v>
       </c>
-      <c r="C1" s="19" t="s">
+      <c r="C1" s="27" t="s">
         <v>174</v>
       </c>
-      <c r="D1" s="19" t="s">
+      <c r="D1" s="27" t="s">
         <v>145</v>
+      </c>
+      <c r="E1" s="24" t="s">
+        <v>273</v>
+      </c>
+      <c r="F1" s="24" t="s">
+        <v>274</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
@@ -3475,11 +3693,11 @@
       <c r="D2" s="19" t="s">
         <v>54</v>
       </c>
-      <c r="E2" t="s">
-        <v>156</v>
-      </c>
-      <c r="F2" t="s">
-        <v>157</v>
+      <c r="E2" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="F2" s="9" t="s">
+        <v>54</v>
       </c>
       <c r="G2" t="s">
         <v>156</v>
@@ -3498,11 +3716,11 @@
       <c r="D3" s="19" t="s">
         <v>54</v>
       </c>
-      <c r="E3" t="s">
-        <v>156</v>
-      </c>
-      <c r="F3" t="s">
-        <v>157</v>
+      <c r="E3" s="9">
+        <v>1</v>
+      </c>
+      <c r="F3" s="9" t="s">
+        <v>54</v>
       </c>
       <c r="G3" t="s">
         <v>156</v>
@@ -3521,11 +3739,11 @@
       <c r="D4" s="19">
         <v>0.105</v>
       </c>
-      <c r="E4" t="s">
-        <v>156</v>
-      </c>
-      <c r="F4" t="s">
-        <v>157</v>
+      <c r="E4" s="9">
+        <v>5</v>
+      </c>
+      <c r="F4" s="9">
+        <v>1.1999999999999999E-3</v>
       </c>
       <c r="G4" t="s">
         <v>156</v>
@@ -3544,11 +3762,11 @@
       <c r="D5" s="19" t="s">
         <v>54</v>
       </c>
-      <c r="E5" t="s">
-        <v>156</v>
-      </c>
-      <c r="F5" t="s">
-        <v>157</v>
+      <c r="E5" s="9">
+        <v>5</v>
+      </c>
+      <c r="F5" s="9">
+        <v>1.1999999999999999E-3</v>
       </c>
       <c r="G5" t="s">
         <v>156</v>
@@ -3567,11 +3785,11 @@
       <c r="D6" s="19">
         <v>0.20699999999999999</v>
       </c>
-      <c r="E6" t="s">
-        <v>156</v>
-      </c>
-      <c r="F6" t="s">
-        <v>157</v>
+      <c r="E6" s="9">
+        <v>5</v>
+      </c>
+      <c r="F6" s="9">
+        <v>1.1999999999999999E-3</v>
       </c>
       <c r="G6" t="s">
         <v>156</v>
@@ -3590,11 +3808,11 @@
       <c r="D7" s="19">
         <v>0.10199999999999999</v>
       </c>
-      <c r="E7" t="s">
-        <v>156</v>
-      </c>
-      <c r="F7" t="s">
-        <v>157</v>
+      <c r="E7" s="9">
+        <v>5</v>
+      </c>
+      <c r="F7" s="9">
+        <v>1.1999999999999999E-3</v>
       </c>
       <c r="G7" t="s">
         <v>156</v>
@@ -3613,11 +3831,11 @@
       <c r="D8" s="19">
         <v>0.47199999999999998</v>
       </c>
-      <c r="E8" t="s">
-        <v>156</v>
-      </c>
-      <c r="F8" t="s">
-        <v>157</v>
+      <c r="E8" s="9">
+        <v>5</v>
+      </c>
+      <c r="F8" s="9">
+        <v>0.05</v>
       </c>
       <c r="G8" t="s">
         <v>156</v>
@@ -3636,11 +3854,11 @@
       <c r="D9" s="19" t="s">
         <v>54</v>
       </c>
-      <c r="E9" t="s">
-        <v>156</v>
-      </c>
-      <c r="F9" t="s">
-        <v>157</v>
+      <c r="E9" s="9">
+        <v>5</v>
+      </c>
+      <c r="F9" s="9">
+        <v>0.05</v>
       </c>
       <c r="G9" t="s">
         <v>156</v>
@@ -3659,11 +3877,11 @@
       <c r="D10" s="19" t="s">
         <v>54</v>
       </c>
-      <c r="E10" t="s">
-        <v>156</v>
-      </c>
-      <c r="F10" t="s">
-        <v>157</v>
+      <c r="E10" s="9">
+        <v>5</v>
+      </c>
+      <c r="F10" s="9">
+        <v>0.05</v>
       </c>
       <c r="G10" t="s">
         <v>156</v>
@@ -3682,11 +3900,11 @@
       <c r="D11" s="19">
         <v>53.555999999999997</v>
       </c>
-      <c r="E11" t="s">
-        <v>156</v>
-      </c>
-      <c r="F11" t="s">
-        <v>157</v>
+      <c r="E11" s="9">
+        <v>1</v>
+      </c>
+      <c r="F11" s="9" t="s">
+        <v>54</v>
       </c>
       <c r="G11" t="s">
         <v>156</v>
@@ -3705,11 +3923,11 @@
       <c r="D12" s="19" t="s">
         <v>54</v>
       </c>
-      <c r="E12" t="s">
-        <v>156</v>
-      </c>
-      <c r="F12" t="s">
-        <v>157</v>
+      <c r="E12" s="9">
+        <v>1</v>
+      </c>
+      <c r="F12" s="9" t="s">
+        <v>54</v>
       </c>
       <c r="G12" t="s">
         <v>156</v>
@@ -3728,11 +3946,11 @@
       <c r="D13" s="19">
         <v>5.7099999999999998E-2</v>
       </c>
-      <c r="E13" t="s">
-        <v>156</v>
-      </c>
-      <c r="F13" t="s">
-        <v>157</v>
+      <c r="E13" s="9">
+        <v>1</v>
+      </c>
+      <c r="F13" s="9">
+        <v>0.05</v>
       </c>
       <c r="G13" t="s">
         <v>156</v>
@@ -3751,11 +3969,11 @@
       <c r="D14" s="19" t="s">
         <v>54</v>
       </c>
-      <c r="E14" t="s">
-        <v>156</v>
-      </c>
-      <c r="F14" t="s">
-        <v>157</v>
+      <c r="E14" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="F14" s="9" t="s">
+        <v>54</v>
       </c>
       <c r="G14" t="s">
         <v>156</v>
@@ -3774,10 +3992,10 @@
       <c r="D15" s="19" t="s">
         <v>54</v>
       </c>
-      <c r="E15" t="s">
-        <v>156</v>
-      </c>
-      <c r="F15" t="s">
+      <c r="E15" s="9">
+        <v>1</v>
+      </c>
+      <c r="F15" s="9" t="s">
         <v>157</v>
       </c>
       <c r="G15" t="s">
@@ -3797,10 +4015,10 @@
       <c r="D16" s="19">
         <v>4.0910000000000002</v>
       </c>
-      <c r="E16" t="s">
-        <v>156</v>
-      </c>
-      <c r="F16" t="s">
+      <c r="E16" s="9">
+        <v>1</v>
+      </c>
+      <c r="F16" s="9" t="s">
         <v>157</v>
       </c>
       <c r="G16" t="s">
@@ -3820,11 +4038,11 @@
       <c r="D17" s="19">
         <v>0.182</v>
       </c>
-      <c r="E17" t="s">
-        <v>156</v>
-      </c>
-      <c r="F17" t="s">
-        <v>157</v>
+      <c r="E17" s="9">
+        <v>5</v>
+      </c>
+      <c r="F17" s="9">
+        <v>1.1999999999999999E-3</v>
       </c>
       <c r="G17" t="s">
         <v>156</v>
@@ -3844,11 +4062,11 @@
         <f>-0.4754*Parameters!D10+3.7707</f>
         <v>0.19711820000000024</v>
       </c>
-      <c r="E18" t="s">
-        <v>156</v>
-      </c>
-      <c r="F18" t="s">
-        <v>157</v>
+      <c r="E18" s="9">
+        <v>1</v>
+      </c>
+      <c r="F18" s="9">
+        <v>0.05</v>
       </c>
       <c r="G18" t="s">
         <v>156</v>
@@ -3863,8 +4081,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1622C7A3-F812-43D4-BDBF-973F36BAE217}">
   <dimension ref="A1:L67"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J16" sqref="J16"/>
+    <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
+      <selection activeCell="A30" sqref="A30:F30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -3872,33 +4090,43 @@
     <col min="2" max="2" width="63" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="14.125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="9.25" style="23" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="21.875" customWidth="1"/>
+    <col min="6" max="6" width="19.125" customWidth="1"/>
     <col min="9" max="9" width="4.375" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="60" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" s="9" t="s">
+    <row r="1" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A1" s="25" t="s">
         <v>74</v>
       </c>
-      <c r="B1" s="9" t="s">
+      <c r="B1" s="25" t="s">
         <v>75</v>
       </c>
-      <c r="C1" s="9" t="s">
+      <c r="C1" s="25" t="s">
         <v>76</v>
       </c>
-      <c r="D1" s="20" t="s">
+      <c r="D1" s="28" t="s">
         <v>145</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" s="24" t="s">
+      <c r="E1" s="24" t="s">
+        <v>273</v>
+      </c>
+      <c r="F1" s="24" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2" s="26" t="s">
         <v>212</v>
       </c>
-      <c r="B2" s="24"/>
-      <c r="C2" s="24"/>
-      <c r="D2" s="24"/>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B2" s="26"/>
+      <c r="C2" s="26"/>
+      <c r="D2" s="26"/>
+      <c r="E2" s="26"/>
+      <c r="F2" s="26"/>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="9">
         <v>2</v>
       </c>
@@ -3911,8 +4139,14 @@
       <c r="D3" s="20">
         <v>13163.9</v>
       </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E3" s="9">
+        <v>2</v>
+      </c>
+      <c r="F3" s="9" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="9">
         <v>32</v>
       </c>
@@ -3925,8 +4159,14 @@
       <c r="D4" s="20">
         <v>63.933</v>
       </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E4" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="F4" s="9" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="9">
         <v>56</v>
       </c>
@@ -3940,8 +4180,14 @@
         <f>D4</f>
         <v>63.933</v>
       </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E5" s="9">
+        <v>1</v>
+      </c>
+      <c r="F5" s="9">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="9">
         <v>12</v>
       </c>
@@ -3954,8 +4200,14 @@
       <c r="D6" s="20">
         <v>6.1909999999999998</v>
       </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E6" s="9">
+        <v>1</v>
+      </c>
+      <c r="F6" s="9">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="9">
         <v>1</v>
       </c>
@@ -3968,8 +4220,14 @@
       <c r="D7" s="22">
         <v>6.2119999999999997</v>
       </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E7" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="F7" s="9" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="9">
         <v>52</v>
       </c>
@@ -3982,16 +4240,24 @@
       <c r="D8" s="20">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A9" s="24" t="s">
+      <c r="E8" s="9" t="s">
+        <v>275</v>
+      </c>
+      <c r="F8" s="9">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A9" s="26" t="s">
         <v>213</v>
       </c>
-      <c r="B9" s="24"/>
-      <c r="C9" s="24"/>
-      <c r="D9" s="24"/>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B9" s="26"/>
+      <c r="C9" s="26"/>
+      <c r="D9" s="26"/>
+      <c r="E9" s="26"/>
+      <c r="F9" s="26"/>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" s="9" t="s">
         <v>79</v>
       </c>
@@ -4004,8 +4270,14 @@
       <c r="D10" s="20">
         <v>7.5170000000000003</v>
       </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E10" s="9">
+        <v>1</v>
+      </c>
+      <c r="F10" s="9">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" s="9" t="s">
         <v>80</v>
       </c>
@@ -4018,8 +4290,14 @@
       <c r="D11" s="20">
         <v>6.92</v>
       </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E11" s="9">
+        <v>1</v>
+      </c>
+      <c r="F11" s="9">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" s="9" t="s">
         <v>81</v>
       </c>
@@ -4032,8 +4310,14 @@
       <c r="D12" s="20">
         <v>8.0489999999999995</v>
       </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E12" s="9">
+        <v>1</v>
+      </c>
+      <c r="F12" s="9">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" s="9">
         <v>6</v>
       </c>
@@ -4046,8 +4330,14 @@
       <c r="D13" s="20" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E13" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="F13" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" s="9" t="s">
         <v>83</v>
       </c>
@@ -4060,8 +4350,14 @@
       <c r="D14" s="20">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E14" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="F14" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" s="9" t="s">
         <v>144</v>
       </c>
@@ -4075,8 +4371,14 @@
         <f>D11-D12</f>
         <v>-1.1289999999999996</v>
       </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E15" s="9">
+        <v>1</v>
+      </c>
+      <c r="F15" s="9">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" s="9" t="s">
         <v>215</v>
       </c>
@@ -4089,8 +4391,14 @@
       <c r="D16" s="20" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E16" s="9">
+        <v>1</v>
+      </c>
+      <c r="F16" s="9">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" s="9" t="s">
         <v>217</v>
       </c>
@@ -4103,8 +4411,14 @@
       <c r="D17" s="20">
         <v>8.0079999999999991</v>
       </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E17" s="9">
+        <v>1</v>
+      </c>
+      <c r="F17" s="9">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" s="9" t="s">
         <v>219</v>
       </c>
@@ -4117,8 +4431,14 @@
       <c r="D18" s="20" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E18" s="9">
+        <v>1</v>
+      </c>
+      <c r="F18" s="9">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" s="9" t="s">
         <v>221</v>
       </c>
@@ -4131,8 +4451,14 @@
       <c r="D19" s="20" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E19" s="9">
+        <v>1</v>
+      </c>
+      <c r="F19" s="9">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" s="9" t="s">
         <v>223</v>
       </c>
@@ -4145,8 +4471,14 @@
       <c r="D20" s="20" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E20" s="9">
+        <v>1</v>
+      </c>
+      <c r="F20" s="9">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" s="9" t="s">
         <v>225</v>
       </c>
@@ -4159,8 +4491,14 @@
       <c r="D21" s="20" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E21" s="9">
+        <v>1</v>
+      </c>
+      <c r="F21" s="9">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" s="9" t="s">
         <v>227</v>
       </c>
@@ -4173,8 +4511,14 @@
       <c r="D22" s="20" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E22" s="9">
+        <v>1</v>
+      </c>
+      <c r="F22" s="9">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" s="9" t="s">
         <v>229</v>
       </c>
@@ -4187,8 +4531,14 @@
       <c r="D23" s="20">
         <v>7.484</v>
       </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E23" s="9">
+        <v>1</v>
+      </c>
+      <c r="F23" s="9">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24" s="9" t="s">
         <v>231</v>
       </c>
@@ -4201,8 +4551,14 @@
       <c r="D24" s="20" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E24" s="9">
+        <v>1</v>
+      </c>
+      <c r="F24" s="9">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" s="9" t="s">
         <v>233</v>
       </c>
@@ -4215,8 +4571,14 @@
       <c r="D25" s="20" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E25" s="9">
+        <v>1</v>
+      </c>
+      <c r="F25" s="9">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26" s="9" t="s">
         <v>235</v>
       </c>
@@ -4229,8 +4591,14 @@
       <c r="D26" s="20" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E26" s="9">
+        <v>1</v>
+      </c>
+      <c r="F26" s="9">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27" s="9" t="s">
         <v>237</v>
       </c>
@@ -4243,8 +4611,14 @@
       <c r="D27" s="20" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E27" s="9">
+        <v>1</v>
+      </c>
+      <c r="F27" s="9">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28" s="9" t="s">
         <v>239</v>
       </c>
@@ -4257,8 +4631,14 @@
       <c r="D28" s="20" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E28" s="9">
+        <v>1</v>
+      </c>
+      <c r="F28" s="9">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29" s="9" t="s">
         <v>241</v>
       </c>
@@ -4271,16 +4651,24 @@
       <c r="D29" s="20">
         <v>6.9279999999999999</v>
       </c>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A30" s="24" t="s">
+      <c r="E29" s="9">
+        <v>1</v>
+      </c>
+      <c r="F29" s="9">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A30" s="26" t="s">
         <v>214</v>
       </c>
-      <c r="B30" s="24"/>
-      <c r="C30" s="24"/>
-      <c r="D30" s="24"/>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B30" s="26"/>
+      <c r="C30" s="26"/>
+      <c r="D30" s="26"/>
+      <c r="E30" s="26"/>
+      <c r="F30" s="26"/>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A31" s="9" t="s">
         <v>84</v>
       </c>
@@ -4293,8 +4681,14 @@
       <c r="D31" s="20">
         <v>19.655999999999999</v>
       </c>
-    </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E31" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="F31" s="9" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A32" s="9" t="s">
         <v>85</v>
       </c>
@@ -4305,6 +4699,12 @@
         <v>193</v>
       </c>
       <c r="D32" s="20" t="s">
+        <v>54</v>
+      </c>
+      <c r="E32" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="F32" s="9" t="s">
         <v>54</v>
       </c>
     </row>
@@ -4321,6 +4721,12 @@
       <c r="D33" s="20">
         <v>187.70599999999999</v>
       </c>
+      <c r="E33" s="9">
+        <v>2</v>
+      </c>
+      <c r="F33" s="9" t="s">
+        <v>54</v>
+      </c>
     </row>
     <row r="34" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A34" s="9" t="s">
@@ -4335,6 +4741,12 @@
       <c r="D34" s="20">
         <v>3.9089999999999998</v>
       </c>
+      <c r="E34" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="F34" s="9" t="s">
+        <v>54</v>
+      </c>
     </row>
     <row r="35" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A35" s="9" t="s">
@@ -4349,6 +4761,12 @@
       <c r="D35" s="20">
         <v>2.8740000000000001</v>
       </c>
+      <c r="E35" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="F35" s="9" t="s">
+        <v>54</v>
+      </c>
     </row>
     <row r="36" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A36" s="9">
@@ -4364,6 +4782,12 @@
         <f>D35+D34</f>
         <v>6.7829999999999995</v>
       </c>
+      <c r="E36" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="F36" s="9" t="s">
+        <v>54</v>
+      </c>
     </row>
     <row r="37" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A37" s="9" t="s">
@@ -4379,6 +4803,12 @@
         <f>D40+D39+D38</f>
         <v>0.59180690372913802</v>
       </c>
+      <c r="E37" s="9">
+        <v>1</v>
+      </c>
+      <c r="F37" s="9">
+        <v>0.05</v>
+      </c>
     </row>
     <row r="38" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A38" s="9">
@@ -4394,6 +4824,12 @@
         <f>(94.7+17.1+10.8+14.9+101.8)/D3</f>
         <v>1.8178503331079697E-2</v>
       </c>
+      <c r="E38" s="9">
+        <v>2</v>
+      </c>
+      <c r="F38" s="9" t="s">
+        <v>54</v>
+      </c>
       <c r="L38" s="9"/>
     </row>
     <row r="39" spans="1:12" x14ac:dyDescent="0.25">
@@ -4410,6 +4846,12 @@
         <f>34.6/D3</f>
         <v>2.6284003980583262E-3</v>
       </c>
+      <c r="E39" s="9">
+        <v>2</v>
+      </c>
+      <c r="F39" s="9" t="s">
+        <v>54</v>
+      </c>
     </row>
     <row r="40" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A40" s="9" t="s">
@@ -4424,6 +4866,12 @@
       <c r="D40" s="20">
         <v>0.57099999999999995</v>
       </c>
+      <c r="E40" s="9">
+        <v>1</v>
+      </c>
+      <c r="F40" s="9">
+        <v>0.05</v>
+      </c>
     </row>
     <row r="41" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A41" s="9" t="s">
@@ -4438,6 +4886,12 @@
       <c r="D41" s="20">
         <v>186.07599999999999</v>
       </c>
+      <c r="E41" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="F41" s="9" t="s">
+        <v>54</v>
+      </c>
     </row>
     <row r="42" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A42" s="9" t="s">
@@ -4453,6 +4907,12 @@
         <f>D41+D34</f>
         <v>189.98499999999999</v>
       </c>
+      <c r="E42" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="F42" s="9" t="s">
+        <v>54</v>
+      </c>
     </row>
     <row r="43" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A43" s="9" t="s">
@@ -4467,6 +4927,12 @@
       <c r="D43" s="20" t="s">
         <v>54</v>
       </c>
+      <c r="E43" s="9">
+        <v>1</v>
+      </c>
+      <c r="F43" s="9">
+        <v>50</v>
+      </c>
     </row>
     <row r="44" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A44" s="9" t="s">
@@ -4481,6 +4947,12 @@
       <c r="D44" s="22" t="s">
         <v>54</v>
       </c>
+      <c r="E44" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="F44" s="9" t="s">
+        <v>54</v>
+      </c>
     </row>
     <row r="45" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A45" s="9" t="s">
@@ -4495,6 +4967,12 @@
       <c r="D45" s="22" t="s">
         <v>54</v>
       </c>
+      <c r="E45" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="F45" s="9" t="s">
+        <v>54</v>
+      </c>
     </row>
     <row r="46" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A46" s="9" t="s">
@@ -4509,6 +4987,12 @@
       <c r="D46" s="20" t="s">
         <v>54</v>
       </c>
+      <c r="E46" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="F46" s="9" t="s">
+        <v>54</v>
+      </c>
     </row>
     <row r="47" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A47" s="9" t="s">
@@ -4523,6 +5007,12 @@
       <c r="D47" s="20" t="s">
         <v>54</v>
       </c>
+      <c r="E47" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="F47" s="9" t="s">
+        <v>54</v>
+      </c>
     </row>
     <row r="48" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A48" s="9" t="s">
@@ -4537,9 +5027,15 @@
       <c r="D48" s="20">
         <v>872.72799999999995</v>
       </c>
+      <c r="E48" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="F48" s="9" t="s">
+        <v>54</v>
+      </c>
       <c r="L48" s="9"/>
     </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A49" s="9" t="s">
         <v>112</v>
       </c>
@@ -4552,8 +5048,14 @@
       <c r="D49" s="20" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E49" s="9">
+        <v>5</v>
+      </c>
+      <c r="F49" s="9">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A50" s="9" t="s">
         <v>114</v>
       </c>
@@ -4566,8 +5068,14 @@
       <c r="D50" s="20" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E50" s="9">
+        <v>5</v>
+      </c>
+      <c r="F50" s="9">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A51" s="9" t="s">
         <v>116</v>
       </c>
@@ -4580,8 +5088,14 @@
       <c r="D51" s="20" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E51" s="9">
+        <v>5</v>
+      </c>
+      <c r="F51" s="9">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A52" s="9" t="s">
         <v>118</v>
       </c>
@@ -4594,8 +5108,14 @@
       <c r="D52" s="20">
         <v>5.1710000000000003</v>
       </c>
-    </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E52" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="F52" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A53" s="9" t="s">
         <v>120</v>
       </c>
@@ -4608,8 +5128,14 @@
       <c r="D53" s="20">
         <v>7.47</v>
       </c>
-    </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E53" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="F53" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A54" s="9" t="s">
         <v>122</v>
       </c>
@@ -4622,8 +5148,14 @@
       <c r="D54" s="20" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E54" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="F54" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A55" s="9" t="s">
         <v>124</v>
       </c>
@@ -4636,8 +5168,14 @@
       <c r="D55" s="20" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E55" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="F55" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A56" s="9" t="s">
         <v>126</v>
       </c>
@@ -4650,8 +5188,14 @@
       <c r="D56" s="20" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E56" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="F56" s="9" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A57" s="9" t="s">
         <v>128</v>
       </c>
@@ -4664,8 +5208,14 @@
       <c r="D57" s="20" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E57" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="F57" s="9" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A58" s="9" t="s">
         <v>130</v>
       </c>
@@ -4678,8 +5228,14 @@
       <c r="D58" s="20" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E58" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="F58" s="9" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A59" s="9" t="s">
         <v>132</v>
       </c>
@@ -4692,8 +5248,14 @@
       <c r="D59" s="20">
         <v>28.058</v>
       </c>
-    </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E59" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="F59" s="9">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A60" s="9" t="s">
         <v>134</v>
       </c>
@@ -4706,8 +5268,14 @@
       <c r="D60" s="20">
         <v>49.143999999999998</v>
       </c>
-    </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E60" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="F60" s="9">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A61" s="9" t="s">
         <v>136</v>
       </c>
@@ -4720,8 +5288,14 @@
       <c r="D61" s="20" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E61" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="F61" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A62" s="9" t="s">
         <v>138</v>
       </c>
@@ -4734,8 +5308,14 @@
       <c r="D62" s="20">
         <v>565.29600000000005</v>
       </c>
-    </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E62" s="9">
+        <v>5</v>
+      </c>
+      <c r="F62" s="9" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A63" s="9" t="s">
         <v>140</v>
       </c>
@@ -4748,8 +5328,14 @@
       <c r="D63" s="20" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E63" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="F63" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A64" s="9" t="s">
         <v>142</v>
       </c>
@@ -4762,8 +5348,14 @@
       <c r="D64" s="20" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E64" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="F64" s="9" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A65" s="9">
         <v>53</v>
       </c>
@@ -4776,8 +5368,14 @@
       <c r="D65" s="20">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E65" s="9" t="s">
+        <v>275</v>
+      </c>
+      <c r="F65" s="9">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A66" s="9">
         <v>54</v>
       </c>
@@ -4790,8 +5388,14 @@
       <c r="D66" s="20">
         <v>63.933</v>
       </c>
-    </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E66" s="9">
+        <v>1</v>
+      </c>
+      <c r="F66" s="9">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A67" s="9">
         <v>55</v>
       </c>
@@ -4804,12 +5408,18 @@
       <c r="D67" s="20">
         <v>63.914000000000001</v>
       </c>
+      <c r="E67" s="9">
+        <v>1</v>
+      </c>
+      <c r="F67" s="9">
+        <v>0.5</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="3">
-    <mergeCell ref="A9:D9"/>
-    <mergeCell ref="A2:D2"/>
-    <mergeCell ref="A30:D30"/>
+    <mergeCell ref="A2:F2"/>
+    <mergeCell ref="A9:F9"/>
+    <mergeCell ref="A30:F30"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>

--- a/assets/fleet/9245263_sofia/test/SSS_Sofia_test2.xlsx
+++ b/assets/fleet/9245263_sofia/test/SSS_Sofia_test2.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\MERENKOV\Desktop\Капитан\sss\assets\fleet\9245263_sofia\test\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{51E23408-F3A5-4E57-86C0-62F5D6CCDB53}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E3B1EE8D-CFBC-4297-8190-84D86DFDB65C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="903" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="903" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="General" sheetId="59" r:id="rId1"/>
@@ -19,9 +19,10 @@
     <sheet name="GrainBulkheads" sheetId="55" r:id="rId4"/>
     <sheet name="Stores" sheetId="57" r:id="rId5"/>
     <sheet name="SF&amp;BM" sheetId="63" r:id="rId6"/>
-    <sheet name="Stabilitycurve" sheetId="61" r:id="rId7"/>
-    <sheet name="StabilityCriteria" sheetId="62" r:id="rId8"/>
-    <sheet name="Parameters" sheetId="65" r:id="rId9"/>
+    <sheet name="SF&amp;BM_max" sheetId="66" r:id="rId7"/>
+    <sheet name="Stabilitycurve" sheetId="61" r:id="rId8"/>
+    <sheet name="StabilityCriteria" sheetId="62" r:id="rId9"/>
+    <sheet name="Parameters" sheetId="65" r:id="rId10"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -42,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="583" uniqueCount="276">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="589" uniqueCount="281">
   <si>
     <t>Форпик</t>
   </si>
@@ -870,6 +871,21 @@
   </si>
   <si>
     <t>±0,5 % ширины судна</t>
+  </si>
+  <si>
+    <t>value</t>
+  </si>
+  <si>
+    <t>BMmax_abs</t>
+  </si>
+  <si>
+    <t>BMmax_perc</t>
+  </si>
+  <si>
+    <t>SFmax_abs</t>
+  </si>
+  <si>
+    <t>SFmax_perc</t>
   </si>
 </sst>
 </file>
@@ -1043,14 +1059,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="5">
@@ -1447,6 +1463,1355 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1622C7A3-F812-43D4-BDBF-973F36BAE217}">
+  <dimension ref="A1:L67"/>
+  <sheetViews>
+    <sheetView topLeftCell="A40" workbookViewId="0">
+      <selection activeCell="A30" sqref="A30:F30"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="63" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.25" style="23" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="21.875" customWidth="1"/>
+    <col min="6" max="6" width="19.125" customWidth="1"/>
+    <col min="9" max="9" width="4.375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="60" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A1" s="25" t="s">
+        <v>74</v>
+      </c>
+      <c r="B1" s="25" t="s">
+        <v>75</v>
+      </c>
+      <c r="C1" s="25" t="s">
+        <v>76</v>
+      </c>
+      <c r="D1" s="27" t="s">
+        <v>145</v>
+      </c>
+      <c r="E1" s="24" t="s">
+        <v>273</v>
+      </c>
+      <c r="F1" s="24" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2" s="28" t="s">
+        <v>212</v>
+      </c>
+      <c r="B2" s="28"/>
+      <c r="C2" s="28"/>
+      <c r="D2" s="28"/>
+      <c r="E2" s="28"/>
+      <c r="F2" s="28"/>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3" s="9">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>190</v>
+      </c>
+      <c r="C3" s="9" t="s">
+        <v>186</v>
+      </c>
+      <c r="D3" s="20">
+        <v>13163.9</v>
+      </c>
+      <c r="E3" s="9">
+        <v>2</v>
+      </c>
+      <c r="F3" s="9" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4" s="9">
+        <v>32</v>
+      </c>
+      <c r="B4" t="s">
+        <v>188</v>
+      </c>
+      <c r="C4" s="9" t="s">
+        <v>148</v>
+      </c>
+      <c r="D4" s="20">
+        <v>63.933</v>
+      </c>
+      <c r="E4" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="F4" s="9" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5" s="9">
+        <v>56</v>
+      </c>
+      <c r="B5" t="s">
+        <v>209</v>
+      </c>
+      <c r="C5" s="9" t="s">
+        <v>148</v>
+      </c>
+      <c r="D5" s="20">
+        <f>D4</f>
+        <v>63.933</v>
+      </c>
+      <c r="E5" s="9">
+        <v>1</v>
+      </c>
+      <c r="F5" s="9">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6" s="9">
+        <v>12</v>
+      </c>
+      <c r="B6" t="s">
+        <v>189</v>
+      </c>
+      <c r="C6" s="9" t="s">
+        <v>187</v>
+      </c>
+      <c r="D6" s="20">
+        <v>6.1909999999999998</v>
+      </c>
+      <c r="E6" s="9">
+        <v>1</v>
+      </c>
+      <c r="F6" s="9">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7" s="9">
+        <v>1</v>
+      </c>
+      <c r="B7" t="s">
+        <v>191</v>
+      </c>
+      <c r="C7" s="9" t="s">
+        <v>148</v>
+      </c>
+      <c r="D7" s="22">
+        <v>6.2119999999999997</v>
+      </c>
+      <c r="E7" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="F7" s="9" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8" s="9">
+        <v>52</v>
+      </c>
+      <c r="B8" t="s">
+        <v>147</v>
+      </c>
+      <c r="C8" s="9" t="s">
+        <v>148</v>
+      </c>
+      <c r="D8" s="20">
+        <v>0</v>
+      </c>
+      <c r="E8" s="9" t="s">
+        <v>275</v>
+      </c>
+      <c r="F8" s="9">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A9" s="28" t="s">
+        <v>213</v>
+      </c>
+      <c r="B9" s="28"/>
+      <c r="C9" s="28"/>
+      <c r="D9" s="28"/>
+      <c r="E9" s="28"/>
+      <c r="F9" s="28"/>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A10" s="9" t="s">
+        <v>79</v>
+      </c>
+      <c r="B10" t="s">
+        <v>272</v>
+      </c>
+      <c r="C10" s="9" t="s">
+        <v>148</v>
+      </c>
+      <c r="D10" s="20">
+        <v>7.5170000000000003</v>
+      </c>
+      <c r="E10" s="9">
+        <v>1</v>
+      </c>
+      <c r="F10" s="9">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A11" s="9" t="s">
+        <v>80</v>
+      </c>
+      <c r="B11" t="s">
+        <v>183</v>
+      </c>
+      <c r="C11" s="9" t="s">
+        <v>148</v>
+      </c>
+      <c r="D11" s="20">
+        <v>6.92</v>
+      </c>
+      <c r="E11" s="9">
+        <v>1</v>
+      </c>
+      <c r="F11" s="9">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A12" s="9" t="s">
+        <v>81</v>
+      </c>
+      <c r="B12" t="s">
+        <v>182</v>
+      </c>
+      <c r="C12" s="9" t="s">
+        <v>148</v>
+      </c>
+      <c r="D12" s="20">
+        <v>8.0489999999999995</v>
+      </c>
+      <c r="E12" s="9">
+        <v>1</v>
+      </c>
+      <c r="F12" s="9">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A13" s="9">
+        <v>6</v>
+      </c>
+      <c r="B13" t="s">
+        <v>204</v>
+      </c>
+      <c r="C13" s="9" t="s">
+        <v>185</v>
+      </c>
+      <c r="D13" s="20" t="s">
+        <v>54</v>
+      </c>
+      <c r="E13" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="F13" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A14" s="9" t="s">
+        <v>83</v>
+      </c>
+      <c r="B14" t="s">
+        <v>181</v>
+      </c>
+      <c r="C14" s="9" t="s">
+        <v>185</v>
+      </c>
+      <c r="D14" s="20">
+        <v>0</v>
+      </c>
+      <c r="E14" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="F14" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A15" s="9" t="s">
+        <v>144</v>
+      </c>
+      <c r="B15" t="s">
+        <v>184</v>
+      </c>
+      <c r="C15" s="9" t="s">
+        <v>148</v>
+      </c>
+      <c r="D15" s="20">
+        <f>D11-D12</f>
+        <v>-1.1289999999999996</v>
+      </c>
+      <c r="E15" s="9">
+        <v>1</v>
+      </c>
+      <c r="F15" s="9">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A16" s="9" t="s">
+        <v>215</v>
+      </c>
+      <c r="B16" t="s">
+        <v>216</v>
+      </c>
+      <c r="C16" s="9" t="s">
+        <v>148</v>
+      </c>
+      <c r="D16" s="20" t="s">
+        <v>54</v>
+      </c>
+      <c r="E16" s="9">
+        <v>1</v>
+      </c>
+      <c r="F16" s="9">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A17" s="9" t="s">
+        <v>217</v>
+      </c>
+      <c r="B17" t="s">
+        <v>218</v>
+      </c>
+      <c r="C17" s="9" t="s">
+        <v>148</v>
+      </c>
+      <c r="D17" s="20">
+        <v>8.0079999999999991</v>
+      </c>
+      <c r="E17" s="9">
+        <v>1</v>
+      </c>
+      <c r="F17" s="9">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A18" s="9" t="s">
+        <v>219</v>
+      </c>
+      <c r="B18" t="s">
+        <v>220</v>
+      </c>
+      <c r="C18" s="9" t="s">
+        <v>148</v>
+      </c>
+      <c r="D18" s="20" t="s">
+        <v>54</v>
+      </c>
+      <c r="E18" s="9">
+        <v>1</v>
+      </c>
+      <c r="F18" s="9">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A19" s="9" t="s">
+        <v>221</v>
+      </c>
+      <c r="B19" t="s">
+        <v>222</v>
+      </c>
+      <c r="C19" s="9" t="s">
+        <v>148</v>
+      </c>
+      <c r="D19" s="20" t="s">
+        <v>54</v>
+      </c>
+      <c r="E19" s="9">
+        <v>1</v>
+      </c>
+      <c r="F19" s="9">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A20" s="9" t="s">
+        <v>223</v>
+      </c>
+      <c r="B20" t="s">
+        <v>224</v>
+      </c>
+      <c r="C20" s="9" t="s">
+        <v>148</v>
+      </c>
+      <c r="D20" s="20" t="s">
+        <v>54</v>
+      </c>
+      <c r="E20" s="9">
+        <v>1</v>
+      </c>
+      <c r="F20" s="9">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A21" s="9" t="s">
+        <v>225</v>
+      </c>
+      <c r="B21" t="s">
+        <v>226</v>
+      </c>
+      <c r="C21" s="9" t="s">
+        <v>148</v>
+      </c>
+      <c r="D21" s="20" t="s">
+        <v>54</v>
+      </c>
+      <c r="E21" s="9">
+        <v>1</v>
+      </c>
+      <c r="F21" s="9">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A22" s="9" t="s">
+        <v>227</v>
+      </c>
+      <c r="B22" t="s">
+        <v>228</v>
+      </c>
+      <c r="C22" s="9" t="s">
+        <v>148</v>
+      </c>
+      <c r="D22" s="20" t="s">
+        <v>54</v>
+      </c>
+      <c r="E22" s="9">
+        <v>1</v>
+      </c>
+      <c r="F22" s="9">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A23" s="9" t="s">
+        <v>229</v>
+      </c>
+      <c r="B23" t="s">
+        <v>230</v>
+      </c>
+      <c r="C23" s="9" t="s">
+        <v>148</v>
+      </c>
+      <c r="D23" s="20">
+        <v>7.484</v>
+      </c>
+      <c r="E23" s="9">
+        <v>1</v>
+      </c>
+      <c r="F23" s="9">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A24" s="9" t="s">
+        <v>231</v>
+      </c>
+      <c r="B24" t="s">
+        <v>232</v>
+      </c>
+      <c r="C24" s="9" t="s">
+        <v>148</v>
+      </c>
+      <c r="D24" s="20" t="s">
+        <v>54</v>
+      </c>
+      <c r="E24" s="9">
+        <v>1</v>
+      </c>
+      <c r="F24" s="9">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A25" s="9" t="s">
+        <v>233</v>
+      </c>
+      <c r="B25" t="s">
+        <v>234</v>
+      </c>
+      <c r="C25" s="9" t="s">
+        <v>148</v>
+      </c>
+      <c r="D25" s="20" t="s">
+        <v>54</v>
+      </c>
+      <c r="E25" s="9">
+        <v>1</v>
+      </c>
+      <c r="F25" s="9">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A26" s="9" t="s">
+        <v>235</v>
+      </c>
+      <c r="B26" t="s">
+        <v>236</v>
+      </c>
+      <c r="C26" s="9" t="s">
+        <v>148</v>
+      </c>
+      <c r="D26" s="20" t="s">
+        <v>54</v>
+      </c>
+      <c r="E26" s="9">
+        <v>1</v>
+      </c>
+      <c r="F26" s="9">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A27" s="9" t="s">
+        <v>237</v>
+      </c>
+      <c r="B27" t="s">
+        <v>238</v>
+      </c>
+      <c r="C27" s="9" t="s">
+        <v>148</v>
+      </c>
+      <c r="D27" s="20" t="s">
+        <v>54</v>
+      </c>
+      <c r="E27" s="9">
+        <v>1</v>
+      </c>
+      <c r="F27" s="9">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A28" s="9" t="s">
+        <v>239</v>
+      </c>
+      <c r="B28" t="s">
+        <v>240</v>
+      </c>
+      <c r="C28" s="9" t="s">
+        <v>148</v>
+      </c>
+      <c r="D28" s="20" t="s">
+        <v>54</v>
+      </c>
+      <c r="E28" s="9">
+        <v>1</v>
+      </c>
+      <c r="F28" s="9">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A29" s="9" t="s">
+        <v>241</v>
+      </c>
+      <c r="B29" t="s">
+        <v>242</v>
+      </c>
+      <c r="C29" s="9" t="s">
+        <v>148</v>
+      </c>
+      <c r="D29" s="20">
+        <v>6.9279999999999999</v>
+      </c>
+      <c r="E29" s="9">
+        <v>1</v>
+      </c>
+      <c r="F29" s="9">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A30" s="28" t="s">
+        <v>214</v>
+      </c>
+      <c r="B30" s="28"/>
+      <c r="C30" s="28"/>
+      <c r="D30" s="28"/>
+      <c r="E30" s="28"/>
+      <c r="F30" s="28"/>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A31" s="9" t="s">
+        <v>84</v>
+      </c>
+      <c r="B31" t="s">
+        <v>199</v>
+      </c>
+      <c r="C31" s="9" t="s">
+        <v>186</v>
+      </c>
+      <c r="D31" s="20">
+        <v>19.655999999999999</v>
+      </c>
+      <c r="E31" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="F31" s="9" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A32" s="9" t="s">
+        <v>85</v>
+      </c>
+      <c r="B32" t="s">
+        <v>200</v>
+      </c>
+      <c r="C32" s="9" t="s">
+        <v>193</v>
+      </c>
+      <c r="D32" s="20" t="s">
+        <v>54</v>
+      </c>
+      <c r="E32" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="F32" s="9" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="33" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A33" s="9" t="s">
+        <v>86</v>
+      </c>
+      <c r="B33" t="s">
+        <v>201</v>
+      </c>
+      <c r="C33" s="9" t="s">
+        <v>194</v>
+      </c>
+      <c r="D33" s="20">
+        <v>187.70599999999999</v>
+      </c>
+      <c r="E33" s="9">
+        <v>2</v>
+      </c>
+      <c r="F33" s="9" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="34" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A34" s="9" t="s">
+        <v>87</v>
+      </c>
+      <c r="B34" t="s">
+        <v>202</v>
+      </c>
+      <c r="C34" s="9" t="s">
+        <v>148</v>
+      </c>
+      <c r="D34" s="20">
+        <v>3.9089999999999998</v>
+      </c>
+      <c r="E34" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="F34" s="9" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="35" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A35" s="9" t="s">
+        <v>203</v>
+      </c>
+      <c r="B35" t="s">
+        <v>90</v>
+      </c>
+      <c r="C35" s="9" t="s">
+        <v>148</v>
+      </c>
+      <c r="D35" s="20">
+        <v>2.8740000000000001</v>
+      </c>
+      <c r="E35" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="F35" s="9" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="36" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A36" s="9">
+        <v>14</v>
+      </c>
+      <c r="B36" t="s">
+        <v>152</v>
+      </c>
+      <c r="C36" s="9" t="s">
+        <v>148</v>
+      </c>
+      <c r="D36" s="20">
+        <f>D35+D34</f>
+        <v>6.7829999999999995</v>
+      </c>
+      <c r="E36" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="F36" s="9" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="37" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A37" s="9" t="s">
+        <v>92</v>
+      </c>
+      <c r="B37" t="s">
+        <v>270</v>
+      </c>
+      <c r="C37" s="9" t="s">
+        <v>148</v>
+      </c>
+      <c r="D37" s="22">
+        <f>D40+D39+D38</f>
+        <v>0.59180690372913802</v>
+      </c>
+      <c r="E37" s="9">
+        <v>1</v>
+      </c>
+      <c r="F37" s="9">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="38" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A38" s="9">
+        <v>16</v>
+      </c>
+      <c r="B38" t="s">
+        <v>206</v>
+      </c>
+      <c r="C38" s="9" t="s">
+        <v>148</v>
+      </c>
+      <c r="D38" s="22">
+        <f>(94.7+17.1+10.8+14.9+101.8)/D3</f>
+        <v>1.8178503331079697E-2</v>
+      </c>
+      <c r="E38" s="9">
+        <v>2</v>
+      </c>
+      <c r="F38" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="L38" s="9"/>
+    </row>
+    <row r="39" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A39" s="9">
+        <v>17</v>
+      </c>
+      <c r="B39" t="s">
+        <v>207</v>
+      </c>
+      <c r="C39" s="9" t="s">
+        <v>148</v>
+      </c>
+      <c r="D39" s="22">
+        <f>34.6/D3</f>
+        <v>2.6284003980583262E-3</v>
+      </c>
+      <c r="E39" s="9">
+        <v>2</v>
+      </c>
+      <c r="F39" s="9" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="40" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A40" s="9" t="s">
+        <v>95</v>
+      </c>
+      <c r="B40" t="s">
+        <v>271</v>
+      </c>
+      <c r="C40" s="9" t="s">
+        <v>148</v>
+      </c>
+      <c r="D40" s="20">
+        <v>0.57099999999999995</v>
+      </c>
+      <c r="E40" s="9">
+        <v>1</v>
+      </c>
+      <c r="F40" s="9">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="41" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A41" s="9" t="s">
+        <v>96</v>
+      </c>
+      <c r="B41" t="s">
+        <v>97</v>
+      </c>
+      <c r="C41" s="9" t="s">
+        <v>148</v>
+      </c>
+      <c r="D41" s="20">
+        <v>186.07599999999999</v>
+      </c>
+      <c r="E41" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="F41" s="9" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="42" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A42" s="9" t="s">
+        <v>98</v>
+      </c>
+      <c r="B42" t="s">
+        <v>99</v>
+      </c>
+      <c r="C42" s="9" t="s">
+        <v>148</v>
+      </c>
+      <c r="D42" s="20">
+        <f>D41+D34</f>
+        <v>189.98499999999999</v>
+      </c>
+      <c r="E42" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="F42" s="9" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="43" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A43" s="9" t="s">
+        <v>100</v>
+      </c>
+      <c r="B43" t="s">
+        <v>101</v>
+      </c>
+      <c r="C43" s="9" t="s">
+        <v>148</v>
+      </c>
+      <c r="D43" s="20" t="s">
+        <v>54</v>
+      </c>
+      <c r="E43" s="9">
+        <v>1</v>
+      </c>
+      <c r="F43" s="9">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="44" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A44" s="9" t="s">
+        <v>102</v>
+      </c>
+      <c r="B44" t="s">
+        <v>103</v>
+      </c>
+      <c r="C44" s="9" t="s">
+        <v>148</v>
+      </c>
+      <c r="D44" s="22" t="s">
+        <v>54</v>
+      </c>
+      <c r="E44" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="F44" s="9" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="45" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A45" s="9" t="s">
+        <v>104</v>
+      </c>
+      <c r="B45" t="s">
+        <v>105</v>
+      </c>
+      <c r="C45" s="9" t="s">
+        <v>148</v>
+      </c>
+      <c r="D45" s="22" t="s">
+        <v>54</v>
+      </c>
+      <c r="E45" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="F45" s="9" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="46" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A46" s="9" t="s">
+        <v>106</v>
+      </c>
+      <c r="B46" t="s">
+        <v>107</v>
+      </c>
+      <c r="C46" s="9" t="s">
+        <v>148</v>
+      </c>
+      <c r="D46" s="20" t="s">
+        <v>54</v>
+      </c>
+      <c r="E46" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="F46" s="9" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="47" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A47" s="9" t="s">
+        <v>108</v>
+      </c>
+      <c r="B47" t="s">
+        <v>109</v>
+      </c>
+      <c r="C47" s="9" t="s">
+        <v>195</v>
+      </c>
+      <c r="D47" s="20" t="s">
+        <v>54</v>
+      </c>
+      <c r="E47" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="F47" s="9" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="48" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A48" s="9" t="s">
+        <v>110</v>
+      </c>
+      <c r="B48" t="s">
+        <v>111</v>
+      </c>
+      <c r="C48" s="9" t="s">
+        <v>196</v>
+      </c>
+      <c r="D48" s="20">
+        <v>872.72799999999995</v>
+      </c>
+      <c r="E48" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="F48" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="L48" s="9"/>
+    </row>
+    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A49" s="9" t="s">
+        <v>112</v>
+      </c>
+      <c r="B49" t="s">
+        <v>113</v>
+      </c>
+      <c r="C49" s="9" t="s">
+        <v>148</v>
+      </c>
+      <c r="D49" s="20" t="s">
+        <v>54</v>
+      </c>
+      <c r="E49" s="9">
+        <v>5</v>
+      </c>
+      <c r="F49" s="9">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A50" s="9" t="s">
+        <v>114</v>
+      </c>
+      <c r="B50" t="s">
+        <v>115</v>
+      </c>
+      <c r="C50" s="9" t="s">
+        <v>148</v>
+      </c>
+      <c r="D50" s="20" t="s">
+        <v>54</v>
+      </c>
+      <c r="E50" s="9">
+        <v>5</v>
+      </c>
+      <c r="F50" s="9">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A51" s="9" t="s">
+        <v>116</v>
+      </c>
+      <c r="B51" t="s">
+        <v>117</v>
+      </c>
+      <c r="C51" s="9" t="s">
+        <v>148</v>
+      </c>
+      <c r="D51" s="20" t="s">
+        <v>54</v>
+      </c>
+      <c r="E51" s="9">
+        <v>5</v>
+      </c>
+      <c r="F51" s="9">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A52" s="9" t="s">
+        <v>118</v>
+      </c>
+      <c r="B52" t="s">
+        <v>119</v>
+      </c>
+      <c r="C52" s="9" t="s">
+        <v>185</v>
+      </c>
+      <c r="D52" s="20">
+        <v>5.1710000000000003</v>
+      </c>
+      <c r="E52" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="F52" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A53" s="9" t="s">
+        <v>120</v>
+      </c>
+      <c r="B53" t="s">
+        <v>121</v>
+      </c>
+      <c r="C53" s="9" t="s">
+        <v>185</v>
+      </c>
+      <c r="D53" s="20">
+        <v>7.47</v>
+      </c>
+      <c r="E53" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="F53" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A54" s="9" t="s">
+        <v>122</v>
+      </c>
+      <c r="B54" t="s">
+        <v>123</v>
+      </c>
+      <c r="C54" s="9" t="s">
+        <v>185</v>
+      </c>
+      <c r="D54" s="20" t="s">
+        <v>54</v>
+      </c>
+      <c r="E54" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="F54" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A55" s="9" t="s">
+        <v>124</v>
+      </c>
+      <c r="B55" t="s">
+        <v>125</v>
+      </c>
+      <c r="C55" s="9" t="s">
+        <v>185</v>
+      </c>
+      <c r="D55" s="20" t="s">
+        <v>54</v>
+      </c>
+      <c r="E55" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="F55" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A56" s="9" t="s">
+        <v>126</v>
+      </c>
+      <c r="B56" t="s">
+        <v>127</v>
+      </c>
+      <c r="C56" s="9" t="s">
+        <v>197</v>
+      </c>
+      <c r="D56" s="20" t="s">
+        <v>54</v>
+      </c>
+      <c r="E56" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="F56" s="9" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A57" s="9" t="s">
+        <v>128</v>
+      </c>
+      <c r="B57" t="s">
+        <v>129</v>
+      </c>
+      <c r="C57" s="9" t="s">
+        <v>192</v>
+      </c>
+      <c r="D57" s="20" t="s">
+        <v>54</v>
+      </c>
+      <c r="E57" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="F57" s="9" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A58" s="9" t="s">
+        <v>130</v>
+      </c>
+      <c r="B58" t="s">
+        <v>131</v>
+      </c>
+      <c r="C58" s="9" t="s">
+        <v>192</v>
+      </c>
+      <c r="D58" s="20" t="s">
+        <v>54</v>
+      </c>
+      <c r="E58" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="F58" s="9" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A59" s="9" t="s">
+        <v>132</v>
+      </c>
+      <c r="B59" t="s">
+        <v>133</v>
+      </c>
+      <c r="C59" s="9" t="s">
+        <v>185</v>
+      </c>
+      <c r="D59" s="20">
+        <v>28.058</v>
+      </c>
+      <c r="E59" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="F59" s="9">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A60" s="9" t="s">
+        <v>134</v>
+      </c>
+      <c r="B60" t="s">
+        <v>135</v>
+      </c>
+      <c r="C60" s="9" t="s">
+        <v>185</v>
+      </c>
+      <c r="D60" s="20">
+        <v>49.143999999999998</v>
+      </c>
+      <c r="E60" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="F60" s="9">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A61" s="9" t="s">
+        <v>136</v>
+      </c>
+      <c r="B61" t="s">
+        <v>137</v>
+      </c>
+      <c r="C61" s="9" t="s">
+        <v>185</v>
+      </c>
+      <c r="D61" s="20" t="s">
+        <v>54</v>
+      </c>
+      <c r="E61" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="F61" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A62" s="9" t="s">
+        <v>138</v>
+      </c>
+      <c r="B62" t="s">
+        <v>139</v>
+      </c>
+      <c r="C62" s="9" t="s">
+        <v>193</v>
+      </c>
+      <c r="D62" s="20">
+        <v>565.29600000000005</v>
+      </c>
+      <c r="E62" s="9">
+        <v>5</v>
+      </c>
+      <c r="F62" s="9" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A63" s="9" t="s">
+        <v>140</v>
+      </c>
+      <c r="B63" t="s">
+        <v>141</v>
+      </c>
+      <c r="C63" s="9" t="s">
+        <v>185</v>
+      </c>
+      <c r="D63" s="20" t="s">
+        <v>54</v>
+      </c>
+      <c r="E63" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="F63" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A64" s="9" t="s">
+        <v>142</v>
+      </c>
+      <c r="B64" t="s">
+        <v>143</v>
+      </c>
+      <c r="C64" s="9" t="s">
+        <v>198</v>
+      </c>
+      <c r="D64" s="20" t="s">
+        <v>54</v>
+      </c>
+      <c r="E64" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="F64" s="9" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A65" s="9">
+        <v>53</v>
+      </c>
+      <c r="B65" t="s">
+        <v>151</v>
+      </c>
+      <c r="C65" s="9" t="s">
+        <v>148</v>
+      </c>
+      <c r="D65" s="20">
+        <v>0</v>
+      </c>
+      <c r="E65" s="9" t="s">
+        <v>275</v>
+      </c>
+      <c r="F65" s="9">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A66" s="9">
+        <v>54</v>
+      </c>
+      <c r="B66" t="s">
+        <v>149</v>
+      </c>
+      <c r="C66" s="9" t="s">
+        <v>148</v>
+      </c>
+      <c r="D66" s="20">
+        <v>63.933</v>
+      </c>
+      <c r="E66" s="9">
+        <v>1</v>
+      </c>
+      <c r="F66" s="9">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A67" s="9">
+        <v>55</v>
+      </c>
+      <c r="B67" t="s">
+        <v>150</v>
+      </c>
+      <c r="C67" s="9" t="s">
+        <v>148</v>
+      </c>
+      <c r="D67" s="20">
+        <v>63.914000000000001</v>
+      </c>
+      <c r="E67" s="9">
+        <v>1</v>
+      </c>
+      <c r="F67" s="9">
+        <v>0.5</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="A2:F2"/>
+    <mergeCell ref="A9:F9"/>
+    <mergeCell ref="A30:F30"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G53"/>
@@ -3143,10 +4508,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8D2769FB-623F-4B71-8DF9-7FDDF69C0946}">
-  <dimension ref="A1:F9"/>
+  <dimension ref="A1:F7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="L17" sqref="L17"/>
+      <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -3199,16 +4564,16 @@
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="9">
-        <v>36.36</v>
-      </c>
-      <c r="B3" s="9" t="s">
-        <v>54</v>
+        <v>39.32</v>
+      </c>
+      <c r="B3" s="9">
+        <v>56</v>
       </c>
       <c r="C3" s="9">
-        <v>-2660.4</v>
-      </c>
-      <c r="D3" s="9" t="s">
-        <v>54</v>
+        <v>-2399.6</v>
+      </c>
+      <c r="D3" s="9">
+        <v>-45946</v>
       </c>
       <c r="E3" s="9">
         <v>5</v>
@@ -3219,16 +4584,16 @@
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="9">
-        <v>39.32</v>
+        <v>91.12</v>
       </c>
       <c r="B4" s="9">
-        <v>56</v>
+        <v>117</v>
       </c>
       <c r="C4" s="9">
-        <v>-2399.6</v>
+        <v>546.20000000000005</v>
       </c>
       <c r="D4" s="9">
-        <v>-45946</v>
+        <v>-28701.3</v>
       </c>
       <c r="E4" s="9">
         <v>5</v>
@@ -3239,16 +4604,16 @@
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="9">
-        <v>53.16</v>
-      </c>
-      <c r="B5" s="9" t="s">
-        <v>54</v>
-      </c>
-      <c r="C5" s="9" t="s">
-        <v>54</v>
+        <v>119.98</v>
+      </c>
+      <c r="B5" s="9">
+        <v>156</v>
+      </c>
+      <c r="C5" s="9">
+        <v>513.1</v>
       </c>
       <c r="D5" s="9">
-        <v>-59088.800000000003</v>
+        <v>306.7</v>
       </c>
       <c r="E5" s="9">
         <v>5</v>
@@ -3258,55 +4623,11 @@
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A6" s="9">
-        <v>91.12</v>
-      </c>
-      <c r="B6" s="9">
-        <v>117</v>
-      </c>
-      <c r="C6" s="9">
-        <v>546.20000000000005</v>
-      </c>
-      <c r="D6" s="9">
-        <v>-28701.3</v>
-      </c>
-      <c r="E6" s="9">
-        <v>5</v>
-      </c>
-      <c r="F6" s="9" t="s">
-        <v>54</v>
-      </c>
+      <c r="E6" s="9"/>
+      <c r="F6" s="9"/>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A7" s="9">
-        <v>119.98</v>
-      </c>
-      <c r="B7" s="9">
-        <v>156</v>
-      </c>
-      <c r="C7" s="9">
-        <v>513.1</v>
-      </c>
-      <c r="D7" s="9">
-        <v>306.7</v>
-      </c>
-      <c r="E7" s="9">
-        <v>5</v>
-      </c>
-      <c r="F7" s="9" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="E8" s="9">
-        <v>5</v>
-      </c>
-      <c r="F8" s="9" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="F9" s="9"/>
+      <c r="F7" s="9"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3314,6 +4635,114 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2CCF02A8-B02D-4D5E-BC13-82C6F59B200C}">
+  <dimension ref="A1:F5"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G13" sqref="G13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="11.5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.625" customWidth="1"/>
+    <col min="4" max="4" width="13.875" customWidth="1"/>
+    <col min="5" max="5" width="14.375" customWidth="1"/>
+    <col min="6" max="6" width="15.125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A1" s="25" t="s">
+        <v>60</v>
+      </c>
+      <c r="B1" s="25" t="s">
+        <v>177</v>
+      </c>
+      <c r="C1" s="25" t="s">
+        <v>276</v>
+      </c>
+      <c r="D1" s="24" t="s">
+        <v>273</v>
+      </c>
+      <c r="E1" s="24" t="s">
+        <v>274</v>
+      </c>
+      <c r="F1" s="9"/>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>277</v>
+      </c>
+      <c r="B2" s="9">
+        <v>53.16</v>
+      </c>
+      <c r="C2" s="9">
+        <v>-59088.800000000003</v>
+      </c>
+      <c r="D2" s="9">
+        <v>5</v>
+      </c>
+      <c r="E2" s="9" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>278</v>
+      </c>
+      <c r="B3" s="9">
+        <v>53.16</v>
+      </c>
+      <c r="C3" s="9">
+        <v>-59088.800000000003</v>
+      </c>
+      <c r="D3" s="9">
+        <v>5</v>
+      </c>
+      <c r="E3" s="9" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>279</v>
+      </c>
+      <c r="B4" s="9">
+        <v>36.36</v>
+      </c>
+      <c r="C4" s="9">
+        <v>-2660.4</v>
+      </c>
+      <c r="D4" s="9">
+        <v>5</v>
+      </c>
+      <c r="E4" s="9" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>280</v>
+      </c>
+      <c r="B5" s="9">
+        <v>36.36</v>
+      </c>
+      <c r="C5" s="9">
+        <v>-2660.4</v>
+      </c>
+      <c r="D5" s="9">
+        <v>5</v>
+      </c>
+      <c r="E5" s="9" t="s">
+        <v>54</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1E5DE354-6FE8-4F4E-92DF-8FA9F59E1489}">
   <dimension ref="A1:D22"/>
   <sheetViews>
@@ -3642,7 +5071,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E500720D-7F16-4373-97E5-9F957C7E1B58}">
   <dimension ref="A1:G18"/>
   <sheetViews>
@@ -3661,16 +5090,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A1" s="27" t="s">
+      <c r="A1" s="26" t="s">
         <v>176</v>
       </c>
-      <c r="B1" s="27" t="s">
+      <c r="B1" s="26" t="s">
         <v>175</v>
       </c>
-      <c r="C1" s="27" t="s">
+      <c r="C1" s="26" t="s">
         <v>174</v>
       </c>
-      <c r="D1" s="27" t="s">
+      <c r="D1" s="26" t="s">
         <v>145</v>
       </c>
       <c r="E1" s="24" t="s">
@@ -4075,1353 +5504,4 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1622C7A3-F812-43D4-BDBF-973F36BAE217}">
-  <dimension ref="A1:L67"/>
-  <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
-      <selection activeCell="A30" sqref="A30:F30"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="2" max="2" width="63" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.25" style="23" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="21.875" customWidth="1"/>
-    <col min="6" max="6" width="19.125" customWidth="1"/>
-    <col min="9" max="9" width="4.375" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="60" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A1" s="25" t="s">
-        <v>74</v>
-      </c>
-      <c r="B1" s="25" t="s">
-        <v>75</v>
-      </c>
-      <c r="C1" s="25" t="s">
-        <v>76</v>
-      </c>
-      <c r="D1" s="28" t="s">
-        <v>145</v>
-      </c>
-      <c r="E1" s="24" t="s">
-        <v>273</v>
-      </c>
-      <c r="F1" s="24" t="s">
-        <v>274</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" s="26" t="s">
-        <v>212</v>
-      </c>
-      <c r="B2" s="26"/>
-      <c r="C2" s="26"/>
-      <c r="D2" s="26"/>
-      <c r="E2" s="26"/>
-      <c r="F2" s="26"/>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3" s="9">
-        <v>2</v>
-      </c>
-      <c r="B3" t="s">
-        <v>190</v>
-      </c>
-      <c r="C3" s="9" t="s">
-        <v>186</v>
-      </c>
-      <c r="D3" s="20">
-        <v>13163.9</v>
-      </c>
-      <c r="E3" s="9">
-        <v>2</v>
-      </c>
-      <c r="F3" s="9" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A4" s="9">
-        <v>32</v>
-      </c>
-      <c r="B4" t="s">
-        <v>188</v>
-      </c>
-      <c r="C4" s="9" t="s">
-        <v>148</v>
-      </c>
-      <c r="D4" s="20">
-        <v>63.933</v>
-      </c>
-      <c r="E4" s="9" t="s">
-        <v>54</v>
-      </c>
-      <c r="F4" s="9" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5" s="9">
-        <v>56</v>
-      </c>
-      <c r="B5" t="s">
-        <v>209</v>
-      </c>
-      <c r="C5" s="9" t="s">
-        <v>148</v>
-      </c>
-      <c r="D5" s="20">
-        <f>D4</f>
-        <v>63.933</v>
-      </c>
-      <c r="E5" s="9">
-        <v>1</v>
-      </c>
-      <c r="F5" s="9">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A6" s="9">
-        <v>12</v>
-      </c>
-      <c r="B6" t="s">
-        <v>189</v>
-      </c>
-      <c r="C6" s="9" t="s">
-        <v>187</v>
-      </c>
-      <c r="D6" s="20">
-        <v>6.1909999999999998</v>
-      </c>
-      <c r="E6" s="9">
-        <v>1</v>
-      </c>
-      <c r="F6" s="9">
-        <v>0.05</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A7" s="9">
-        <v>1</v>
-      </c>
-      <c r="B7" t="s">
-        <v>191</v>
-      </c>
-      <c r="C7" s="9" t="s">
-        <v>148</v>
-      </c>
-      <c r="D7" s="22">
-        <v>6.2119999999999997</v>
-      </c>
-      <c r="E7" s="9" t="s">
-        <v>54</v>
-      </c>
-      <c r="F7" s="9" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A8" s="9">
-        <v>52</v>
-      </c>
-      <c r="B8" t="s">
-        <v>147</v>
-      </c>
-      <c r="C8" s="9" t="s">
-        <v>148</v>
-      </c>
-      <c r="D8" s="20">
-        <v>0</v>
-      </c>
-      <c r="E8" s="9" t="s">
-        <v>275</v>
-      </c>
-      <c r="F8" s="9">
-        <v>0.05</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A9" s="26" t="s">
-        <v>213</v>
-      </c>
-      <c r="B9" s="26"/>
-      <c r="C9" s="26"/>
-      <c r="D9" s="26"/>
-      <c r="E9" s="26"/>
-      <c r="F9" s="26"/>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A10" s="9" t="s">
-        <v>79</v>
-      </c>
-      <c r="B10" t="s">
-        <v>272</v>
-      </c>
-      <c r="C10" s="9" t="s">
-        <v>148</v>
-      </c>
-      <c r="D10" s="20">
-        <v>7.5170000000000003</v>
-      </c>
-      <c r="E10" s="9">
-        <v>1</v>
-      </c>
-      <c r="F10" s="9">
-        <v>0.05</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A11" s="9" t="s">
-        <v>80</v>
-      </c>
-      <c r="B11" t="s">
-        <v>183</v>
-      </c>
-      <c r="C11" s="9" t="s">
-        <v>148</v>
-      </c>
-      <c r="D11" s="20">
-        <v>6.92</v>
-      </c>
-      <c r="E11" s="9">
-        <v>1</v>
-      </c>
-      <c r="F11" s="9">
-        <v>0.05</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A12" s="9" t="s">
-        <v>81</v>
-      </c>
-      <c r="B12" t="s">
-        <v>182</v>
-      </c>
-      <c r="C12" s="9" t="s">
-        <v>148</v>
-      </c>
-      <c r="D12" s="20">
-        <v>8.0489999999999995</v>
-      </c>
-      <c r="E12" s="9">
-        <v>1</v>
-      </c>
-      <c r="F12" s="9">
-        <v>0.05</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A13" s="9">
-        <v>6</v>
-      </c>
-      <c r="B13" t="s">
-        <v>204</v>
-      </c>
-      <c r="C13" s="9" t="s">
-        <v>185</v>
-      </c>
-      <c r="D13" s="20" t="s">
-        <v>54</v>
-      </c>
-      <c r="E13" s="9" t="s">
-        <v>54</v>
-      </c>
-      <c r="F13" s="9">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A14" s="9" t="s">
-        <v>83</v>
-      </c>
-      <c r="B14" t="s">
-        <v>181</v>
-      </c>
-      <c r="C14" s="9" t="s">
-        <v>185</v>
-      </c>
-      <c r="D14" s="20">
-        <v>0</v>
-      </c>
-      <c r="E14" s="9" t="s">
-        <v>54</v>
-      </c>
-      <c r="F14" s="9">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A15" s="9" t="s">
-        <v>144</v>
-      </c>
-      <c r="B15" t="s">
-        <v>184</v>
-      </c>
-      <c r="C15" s="9" t="s">
-        <v>148</v>
-      </c>
-      <c r="D15" s="20">
-        <f>D11-D12</f>
-        <v>-1.1289999999999996</v>
-      </c>
-      <c r="E15" s="9">
-        <v>1</v>
-      </c>
-      <c r="F15" s="9">
-        <v>0.05</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A16" s="9" t="s">
-        <v>215</v>
-      </c>
-      <c r="B16" t="s">
-        <v>216</v>
-      </c>
-      <c r="C16" s="9" t="s">
-        <v>148</v>
-      </c>
-      <c r="D16" s="20" t="s">
-        <v>54</v>
-      </c>
-      <c r="E16" s="9">
-        <v>1</v>
-      </c>
-      <c r="F16" s="9">
-        <v>0.05</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A17" s="9" t="s">
-        <v>217</v>
-      </c>
-      <c r="B17" t="s">
-        <v>218</v>
-      </c>
-      <c r="C17" s="9" t="s">
-        <v>148</v>
-      </c>
-      <c r="D17" s="20">
-        <v>8.0079999999999991</v>
-      </c>
-      <c r="E17" s="9">
-        <v>1</v>
-      </c>
-      <c r="F17" s="9">
-        <v>0.05</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A18" s="9" t="s">
-        <v>219</v>
-      </c>
-      <c r="B18" t="s">
-        <v>220</v>
-      </c>
-      <c r="C18" s="9" t="s">
-        <v>148</v>
-      </c>
-      <c r="D18" s="20" t="s">
-        <v>54</v>
-      </c>
-      <c r="E18" s="9">
-        <v>1</v>
-      </c>
-      <c r="F18" s="9">
-        <v>0.05</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A19" s="9" t="s">
-        <v>221</v>
-      </c>
-      <c r="B19" t="s">
-        <v>222</v>
-      </c>
-      <c r="C19" s="9" t="s">
-        <v>148</v>
-      </c>
-      <c r="D19" s="20" t="s">
-        <v>54</v>
-      </c>
-      <c r="E19" s="9">
-        <v>1</v>
-      </c>
-      <c r="F19" s="9">
-        <v>0.05</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A20" s="9" t="s">
-        <v>223</v>
-      </c>
-      <c r="B20" t="s">
-        <v>224</v>
-      </c>
-      <c r="C20" s="9" t="s">
-        <v>148</v>
-      </c>
-      <c r="D20" s="20" t="s">
-        <v>54</v>
-      </c>
-      <c r="E20" s="9">
-        <v>1</v>
-      </c>
-      <c r="F20" s="9">
-        <v>0.05</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A21" s="9" t="s">
-        <v>225</v>
-      </c>
-      <c r="B21" t="s">
-        <v>226</v>
-      </c>
-      <c r="C21" s="9" t="s">
-        <v>148</v>
-      </c>
-      <c r="D21" s="20" t="s">
-        <v>54</v>
-      </c>
-      <c r="E21" s="9">
-        <v>1</v>
-      </c>
-      <c r="F21" s="9">
-        <v>0.05</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A22" s="9" t="s">
-        <v>227</v>
-      </c>
-      <c r="B22" t="s">
-        <v>228</v>
-      </c>
-      <c r="C22" s="9" t="s">
-        <v>148</v>
-      </c>
-      <c r="D22" s="20" t="s">
-        <v>54</v>
-      </c>
-      <c r="E22" s="9">
-        <v>1</v>
-      </c>
-      <c r="F22" s="9">
-        <v>0.05</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A23" s="9" t="s">
-        <v>229</v>
-      </c>
-      <c r="B23" t="s">
-        <v>230</v>
-      </c>
-      <c r="C23" s="9" t="s">
-        <v>148</v>
-      </c>
-      <c r="D23" s="20">
-        <v>7.484</v>
-      </c>
-      <c r="E23" s="9">
-        <v>1</v>
-      </c>
-      <c r="F23" s="9">
-        <v>0.05</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A24" s="9" t="s">
-        <v>231</v>
-      </c>
-      <c r="B24" t="s">
-        <v>232</v>
-      </c>
-      <c r="C24" s="9" t="s">
-        <v>148</v>
-      </c>
-      <c r="D24" s="20" t="s">
-        <v>54</v>
-      </c>
-      <c r="E24" s="9">
-        <v>1</v>
-      </c>
-      <c r="F24" s="9">
-        <v>0.05</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A25" s="9" t="s">
-        <v>233</v>
-      </c>
-      <c r="B25" t="s">
-        <v>234</v>
-      </c>
-      <c r="C25" s="9" t="s">
-        <v>148</v>
-      </c>
-      <c r="D25" s="20" t="s">
-        <v>54</v>
-      </c>
-      <c r="E25" s="9">
-        <v>1</v>
-      </c>
-      <c r="F25" s="9">
-        <v>0.05</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A26" s="9" t="s">
-        <v>235</v>
-      </c>
-      <c r="B26" t="s">
-        <v>236</v>
-      </c>
-      <c r="C26" s="9" t="s">
-        <v>148</v>
-      </c>
-      <c r="D26" s="20" t="s">
-        <v>54</v>
-      </c>
-      <c r="E26" s="9">
-        <v>1</v>
-      </c>
-      <c r="F26" s="9">
-        <v>0.05</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A27" s="9" t="s">
-        <v>237</v>
-      </c>
-      <c r="B27" t="s">
-        <v>238</v>
-      </c>
-      <c r="C27" s="9" t="s">
-        <v>148</v>
-      </c>
-      <c r="D27" s="20" t="s">
-        <v>54</v>
-      </c>
-      <c r="E27" s="9">
-        <v>1</v>
-      </c>
-      <c r="F27" s="9">
-        <v>0.05</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A28" s="9" t="s">
-        <v>239</v>
-      </c>
-      <c r="B28" t="s">
-        <v>240</v>
-      </c>
-      <c r="C28" s="9" t="s">
-        <v>148</v>
-      </c>
-      <c r="D28" s="20" t="s">
-        <v>54</v>
-      </c>
-      <c r="E28" s="9">
-        <v>1</v>
-      </c>
-      <c r="F28" s="9">
-        <v>0.05</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A29" s="9" t="s">
-        <v>241</v>
-      </c>
-      <c r="B29" t="s">
-        <v>242</v>
-      </c>
-      <c r="C29" s="9" t="s">
-        <v>148</v>
-      </c>
-      <c r="D29" s="20">
-        <v>6.9279999999999999</v>
-      </c>
-      <c r="E29" s="9">
-        <v>1</v>
-      </c>
-      <c r="F29" s="9">
-        <v>0.05</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A30" s="26" t="s">
-        <v>214</v>
-      </c>
-      <c r="B30" s="26"/>
-      <c r="C30" s="26"/>
-      <c r="D30" s="26"/>
-      <c r="E30" s="26"/>
-      <c r="F30" s="26"/>
-    </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A31" s="9" t="s">
-        <v>84</v>
-      </c>
-      <c r="B31" t="s">
-        <v>199</v>
-      </c>
-      <c r="C31" s="9" t="s">
-        <v>186</v>
-      </c>
-      <c r="D31" s="20">
-        <v>19.655999999999999</v>
-      </c>
-      <c r="E31" s="9" t="s">
-        <v>54</v>
-      </c>
-      <c r="F31" s="9" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A32" s="9" t="s">
-        <v>85</v>
-      </c>
-      <c r="B32" t="s">
-        <v>200</v>
-      </c>
-      <c r="C32" s="9" t="s">
-        <v>193</v>
-      </c>
-      <c r="D32" s="20" t="s">
-        <v>54</v>
-      </c>
-      <c r="E32" s="9" t="s">
-        <v>54</v>
-      </c>
-      <c r="F32" s="9" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="33" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A33" s="9" t="s">
-        <v>86</v>
-      </c>
-      <c r="B33" t="s">
-        <v>201</v>
-      </c>
-      <c r="C33" s="9" t="s">
-        <v>194</v>
-      </c>
-      <c r="D33" s="20">
-        <v>187.70599999999999</v>
-      </c>
-      <c r="E33" s="9">
-        <v>2</v>
-      </c>
-      <c r="F33" s="9" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="34" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A34" s="9" t="s">
-        <v>87</v>
-      </c>
-      <c r="B34" t="s">
-        <v>202</v>
-      </c>
-      <c r="C34" s="9" t="s">
-        <v>148</v>
-      </c>
-      <c r="D34" s="20">
-        <v>3.9089999999999998</v>
-      </c>
-      <c r="E34" s="9" t="s">
-        <v>54</v>
-      </c>
-      <c r="F34" s="9" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="35" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A35" s="9" t="s">
-        <v>203</v>
-      </c>
-      <c r="B35" t="s">
-        <v>90</v>
-      </c>
-      <c r="C35" s="9" t="s">
-        <v>148</v>
-      </c>
-      <c r="D35" s="20">
-        <v>2.8740000000000001</v>
-      </c>
-      <c r="E35" s="9" t="s">
-        <v>54</v>
-      </c>
-      <c r="F35" s="9" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="36" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A36" s="9">
-        <v>14</v>
-      </c>
-      <c r="B36" t="s">
-        <v>152</v>
-      </c>
-      <c r="C36" s="9" t="s">
-        <v>148</v>
-      </c>
-      <c r="D36" s="20">
-        <f>D35+D34</f>
-        <v>6.7829999999999995</v>
-      </c>
-      <c r="E36" s="9" t="s">
-        <v>54</v>
-      </c>
-      <c r="F36" s="9" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="37" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A37" s="9" t="s">
-        <v>92</v>
-      </c>
-      <c r="B37" t="s">
-        <v>270</v>
-      </c>
-      <c r="C37" s="9" t="s">
-        <v>148</v>
-      </c>
-      <c r="D37" s="22">
-        <f>D40+D39+D38</f>
-        <v>0.59180690372913802</v>
-      </c>
-      <c r="E37" s="9">
-        <v>1</v>
-      </c>
-      <c r="F37" s="9">
-        <v>0.05</v>
-      </c>
-    </row>
-    <row r="38" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A38" s="9">
-        <v>16</v>
-      </c>
-      <c r="B38" t="s">
-        <v>206</v>
-      </c>
-      <c r="C38" s="9" t="s">
-        <v>148</v>
-      </c>
-      <c r="D38" s="22">
-        <f>(94.7+17.1+10.8+14.9+101.8)/D3</f>
-        <v>1.8178503331079697E-2</v>
-      </c>
-      <c r="E38" s="9">
-        <v>2</v>
-      </c>
-      <c r="F38" s="9" t="s">
-        <v>54</v>
-      </c>
-      <c r="L38" s="9"/>
-    </row>
-    <row r="39" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A39" s="9">
-        <v>17</v>
-      </c>
-      <c r="B39" t="s">
-        <v>207</v>
-      </c>
-      <c r="C39" s="9" t="s">
-        <v>148</v>
-      </c>
-      <c r="D39" s="22">
-        <f>34.6/D3</f>
-        <v>2.6284003980583262E-3</v>
-      </c>
-      <c r="E39" s="9">
-        <v>2</v>
-      </c>
-      <c r="F39" s="9" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="40" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A40" s="9" t="s">
-        <v>95</v>
-      </c>
-      <c r="B40" t="s">
-        <v>271</v>
-      </c>
-      <c r="C40" s="9" t="s">
-        <v>148</v>
-      </c>
-      <c r="D40" s="20">
-        <v>0.57099999999999995</v>
-      </c>
-      <c r="E40" s="9">
-        <v>1</v>
-      </c>
-      <c r="F40" s="9">
-        <v>0.05</v>
-      </c>
-    </row>
-    <row r="41" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A41" s="9" t="s">
-        <v>96</v>
-      </c>
-      <c r="B41" t="s">
-        <v>97</v>
-      </c>
-      <c r="C41" s="9" t="s">
-        <v>148</v>
-      </c>
-      <c r="D41" s="20">
-        <v>186.07599999999999</v>
-      </c>
-      <c r="E41" s="9" t="s">
-        <v>54</v>
-      </c>
-      <c r="F41" s="9" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="42" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A42" s="9" t="s">
-        <v>98</v>
-      </c>
-      <c r="B42" t="s">
-        <v>99</v>
-      </c>
-      <c r="C42" s="9" t="s">
-        <v>148</v>
-      </c>
-      <c r="D42" s="20">
-        <f>D41+D34</f>
-        <v>189.98499999999999</v>
-      </c>
-      <c r="E42" s="9" t="s">
-        <v>54</v>
-      </c>
-      <c r="F42" s="9" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="43" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A43" s="9" t="s">
-        <v>100</v>
-      </c>
-      <c r="B43" t="s">
-        <v>101</v>
-      </c>
-      <c r="C43" s="9" t="s">
-        <v>148</v>
-      </c>
-      <c r="D43" s="20" t="s">
-        <v>54</v>
-      </c>
-      <c r="E43" s="9">
-        <v>1</v>
-      </c>
-      <c r="F43" s="9">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="44" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A44" s="9" t="s">
-        <v>102</v>
-      </c>
-      <c r="B44" t="s">
-        <v>103</v>
-      </c>
-      <c r="C44" s="9" t="s">
-        <v>148</v>
-      </c>
-      <c r="D44" s="22" t="s">
-        <v>54</v>
-      </c>
-      <c r="E44" s="9" t="s">
-        <v>54</v>
-      </c>
-      <c r="F44" s="9" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="45" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A45" s="9" t="s">
-        <v>104</v>
-      </c>
-      <c r="B45" t="s">
-        <v>105</v>
-      </c>
-      <c r="C45" s="9" t="s">
-        <v>148</v>
-      </c>
-      <c r="D45" s="22" t="s">
-        <v>54</v>
-      </c>
-      <c r="E45" s="9" t="s">
-        <v>54</v>
-      </c>
-      <c r="F45" s="9" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="46" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A46" s="9" t="s">
-        <v>106</v>
-      </c>
-      <c r="B46" t="s">
-        <v>107</v>
-      </c>
-      <c r="C46" s="9" t="s">
-        <v>148</v>
-      </c>
-      <c r="D46" s="20" t="s">
-        <v>54</v>
-      </c>
-      <c r="E46" s="9" t="s">
-        <v>54</v>
-      </c>
-      <c r="F46" s="9" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="47" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A47" s="9" t="s">
-        <v>108</v>
-      </c>
-      <c r="B47" t="s">
-        <v>109</v>
-      </c>
-      <c r="C47" s="9" t="s">
-        <v>195</v>
-      </c>
-      <c r="D47" s="20" t="s">
-        <v>54</v>
-      </c>
-      <c r="E47" s="9" t="s">
-        <v>54</v>
-      </c>
-      <c r="F47" s="9" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="48" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A48" s="9" t="s">
-        <v>110</v>
-      </c>
-      <c r="B48" t="s">
-        <v>111</v>
-      </c>
-      <c r="C48" s="9" t="s">
-        <v>196</v>
-      </c>
-      <c r="D48" s="20">
-        <v>872.72799999999995</v>
-      </c>
-      <c r="E48" s="9" t="s">
-        <v>54</v>
-      </c>
-      <c r="F48" s="9" t="s">
-        <v>54</v>
-      </c>
-      <c r="L48" s="9"/>
-    </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A49" s="9" t="s">
-        <v>112</v>
-      </c>
-      <c r="B49" t="s">
-        <v>113</v>
-      </c>
-      <c r="C49" s="9" t="s">
-        <v>148</v>
-      </c>
-      <c r="D49" s="20" t="s">
-        <v>54</v>
-      </c>
-      <c r="E49" s="9">
-        <v>5</v>
-      </c>
-      <c r="F49" s="9">
-        <v>0.05</v>
-      </c>
-    </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A50" s="9" t="s">
-        <v>114</v>
-      </c>
-      <c r="B50" t="s">
-        <v>115</v>
-      </c>
-      <c r="C50" s="9" t="s">
-        <v>148</v>
-      </c>
-      <c r="D50" s="20" t="s">
-        <v>54</v>
-      </c>
-      <c r="E50" s="9">
-        <v>5</v>
-      </c>
-      <c r="F50" s="9">
-        <v>0.05</v>
-      </c>
-    </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A51" s="9" t="s">
-        <v>116</v>
-      </c>
-      <c r="B51" t="s">
-        <v>117</v>
-      </c>
-      <c r="C51" s="9" t="s">
-        <v>148</v>
-      </c>
-      <c r="D51" s="20" t="s">
-        <v>54</v>
-      </c>
-      <c r="E51" s="9">
-        <v>5</v>
-      </c>
-      <c r="F51" s="9">
-        <v>0.05</v>
-      </c>
-    </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A52" s="9" t="s">
-        <v>118</v>
-      </c>
-      <c r="B52" t="s">
-        <v>119</v>
-      </c>
-      <c r="C52" s="9" t="s">
-        <v>185</v>
-      </c>
-      <c r="D52" s="20">
-        <v>5.1710000000000003</v>
-      </c>
-      <c r="E52" s="9" t="s">
-        <v>54</v>
-      </c>
-      <c r="F52" s="9">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A53" s="9" t="s">
-        <v>120</v>
-      </c>
-      <c r="B53" t="s">
-        <v>121</v>
-      </c>
-      <c r="C53" s="9" t="s">
-        <v>185</v>
-      </c>
-      <c r="D53" s="20">
-        <v>7.47</v>
-      </c>
-      <c r="E53" s="9" t="s">
-        <v>54</v>
-      </c>
-      <c r="F53" s="9">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A54" s="9" t="s">
-        <v>122</v>
-      </c>
-      <c r="B54" t="s">
-        <v>123</v>
-      </c>
-      <c r="C54" s="9" t="s">
-        <v>185</v>
-      </c>
-      <c r="D54" s="20" t="s">
-        <v>54</v>
-      </c>
-      <c r="E54" s="9" t="s">
-        <v>54</v>
-      </c>
-      <c r="F54" s="9">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A55" s="9" t="s">
-        <v>124</v>
-      </c>
-      <c r="B55" t="s">
-        <v>125</v>
-      </c>
-      <c r="C55" s="9" t="s">
-        <v>185</v>
-      </c>
-      <c r="D55" s="20" t="s">
-        <v>54</v>
-      </c>
-      <c r="E55" s="9" t="s">
-        <v>54</v>
-      </c>
-      <c r="F55" s="9">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A56" s="9" t="s">
-        <v>126</v>
-      </c>
-      <c r="B56" t="s">
-        <v>127</v>
-      </c>
-      <c r="C56" s="9" t="s">
-        <v>197</v>
-      </c>
-      <c r="D56" s="20" t="s">
-        <v>54</v>
-      </c>
-      <c r="E56" s="9" t="s">
-        <v>54</v>
-      </c>
-      <c r="F56" s="9" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A57" s="9" t="s">
-        <v>128</v>
-      </c>
-      <c r="B57" t="s">
-        <v>129</v>
-      </c>
-      <c r="C57" s="9" t="s">
-        <v>192</v>
-      </c>
-      <c r="D57" s="20" t="s">
-        <v>54</v>
-      </c>
-      <c r="E57" s="9" t="s">
-        <v>54</v>
-      </c>
-      <c r="F57" s="9" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A58" s="9" t="s">
-        <v>130</v>
-      </c>
-      <c r="B58" t="s">
-        <v>131</v>
-      </c>
-      <c r="C58" s="9" t="s">
-        <v>192</v>
-      </c>
-      <c r="D58" s="20" t="s">
-        <v>54</v>
-      </c>
-      <c r="E58" s="9" t="s">
-        <v>54</v>
-      </c>
-      <c r="F58" s="9" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A59" s="9" t="s">
-        <v>132</v>
-      </c>
-      <c r="B59" t="s">
-        <v>133</v>
-      </c>
-      <c r="C59" s="9" t="s">
-        <v>185</v>
-      </c>
-      <c r="D59" s="20">
-        <v>28.058</v>
-      </c>
-      <c r="E59" s="9" t="s">
-        <v>54</v>
-      </c>
-      <c r="F59" s="9">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A60" s="9" t="s">
-        <v>134</v>
-      </c>
-      <c r="B60" t="s">
-        <v>135</v>
-      </c>
-      <c r="C60" s="9" t="s">
-        <v>185</v>
-      </c>
-      <c r="D60" s="20">
-        <v>49.143999999999998</v>
-      </c>
-      <c r="E60" s="9" t="s">
-        <v>54</v>
-      </c>
-      <c r="F60" s="9">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A61" s="9" t="s">
-        <v>136</v>
-      </c>
-      <c r="B61" t="s">
-        <v>137</v>
-      </c>
-      <c r="C61" s="9" t="s">
-        <v>185</v>
-      </c>
-      <c r="D61" s="20" t="s">
-        <v>54</v>
-      </c>
-      <c r="E61" s="9" t="s">
-        <v>54</v>
-      </c>
-      <c r="F61" s="9">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A62" s="9" t="s">
-        <v>138</v>
-      </c>
-      <c r="B62" t="s">
-        <v>139</v>
-      </c>
-      <c r="C62" s="9" t="s">
-        <v>193</v>
-      </c>
-      <c r="D62" s="20">
-        <v>565.29600000000005</v>
-      </c>
-      <c r="E62" s="9">
-        <v>5</v>
-      </c>
-      <c r="F62" s="9" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A63" s="9" t="s">
-        <v>140</v>
-      </c>
-      <c r="B63" t="s">
-        <v>141</v>
-      </c>
-      <c r="C63" s="9" t="s">
-        <v>185</v>
-      </c>
-      <c r="D63" s="20" t="s">
-        <v>54</v>
-      </c>
-      <c r="E63" s="9" t="s">
-        <v>54</v>
-      </c>
-      <c r="F63" s="9">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A64" s="9" t="s">
-        <v>142</v>
-      </c>
-      <c r="B64" t="s">
-        <v>143</v>
-      </c>
-      <c r="C64" s="9" t="s">
-        <v>198</v>
-      </c>
-      <c r="D64" s="20" t="s">
-        <v>54</v>
-      </c>
-      <c r="E64" s="9" t="s">
-        <v>54</v>
-      </c>
-      <c r="F64" s="9" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A65" s="9">
-        <v>53</v>
-      </c>
-      <c r="B65" t="s">
-        <v>151</v>
-      </c>
-      <c r="C65" s="9" t="s">
-        <v>148</v>
-      </c>
-      <c r="D65" s="20">
-        <v>0</v>
-      </c>
-      <c r="E65" s="9" t="s">
-        <v>275</v>
-      </c>
-      <c r="F65" s="9">
-        <v>0.05</v>
-      </c>
-    </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A66" s="9">
-        <v>54</v>
-      </c>
-      <c r="B66" t="s">
-        <v>149</v>
-      </c>
-      <c r="C66" s="9" t="s">
-        <v>148</v>
-      </c>
-      <c r="D66" s="20">
-        <v>63.933</v>
-      </c>
-      <c r="E66" s="9">
-        <v>1</v>
-      </c>
-      <c r="F66" s="9">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A67" s="9">
-        <v>55</v>
-      </c>
-      <c r="B67" t="s">
-        <v>150</v>
-      </c>
-      <c r="C67" s="9" t="s">
-        <v>148</v>
-      </c>
-      <c r="D67" s="20">
-        <v>63.914000000000001</v>
-      </c>
-      <c r="E67" s="9">
-        <v>1</v>
-      </c>
-      <c r="F67" s="9">
-        <v>0.5</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="3">
-    <mergeCell ref="A2:F2"/>
-    <mergeCell ref="A9:F9"/>
-    <mergeCell ref="A30:F30"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
-</worksheet>
 </file>
--- a/assets/fleet/9245263_sofia/test/SSS_Sofia_test2.xlsx
+++ b/assets/fleet/9245263_sofia/test/SSS_Sofia_test2.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\MERENKOV\Desktop\Капитан\sss\assets\fleet\9245263_sofia\test\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E3B1EE8D-CFBC-4297-8190-84D86DFDB65C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8DB5E153-BD86-480B-A574-C27FC132CCE7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="903" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="903" activeTab="9" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="General" sheetId="59" r:id="rId1"/>
@@ -1467,8 +1467,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1622C7A3-F812-43D4-BDBF-973F36BAE217}">
   <dimension ref="A1:L67"/>
   <sheetViews>
-    <sheetView topLeftCell="A40" workbookViewId="0">
-      <selection activeCell="A30" sqref="A30:F30"/>
+    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="F44" sqref="F44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -2317,7 +2317,7 @@
         <v>1</v>
       </c>
       <c r="F43" s="9">
-        <v>50</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="44" spans="1:12" x14ac:dyDescent="0.25">
@@ -4638,7 +4638,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2CCF02A8-B02D-4D5E-BC13-82C6F59B200C}">
   <dimension ref="A1:F5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G13" sqref="G13"/>
     </sheetView>
   </sheetViews>

--- a/assets/fleet/9245263_sofia/test/SSS_Sofia_test2.xlsx
+++ b/assets/fleet/9245263_sofia/test/SSS_Sofia_test2.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\MERENKOV\Desktop\Капитан\sss\assets\fleet\9245263_sofia\test\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8DB5E153-BD86-480B-A574-C27FC132CCE7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9B86AA7A-A2E2-4289-9003-5917D0EA96AA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="903" activeTab="9" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="903" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="General" sheetId="59" r:id="rId1"/>
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="589" uniqueCount="281">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="589" uniqueCount="280">
   <si>
     <t>Форпик</t>
   </si>
@@ -514,9 +514,6 @@
   </si>
   <si>
     <t xml:space="preserve">        </t>
-  </si>
-  <si>
-    <t xml:space="preserve">     </t>
   </si>
   <si>
     <t xml:space="preserve"> Статический крен от ветра              </t>
@@ -1419,31 +1416,31 @@
         <v>72</v>
       </c>
       <c r="B3" s="9" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="B4" s="9" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="B5" s="9" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
     </row>
     <row r="6" spans="1:2" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="B6" s="11" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
     </row>
   </sheetData>
@@ -1467,8 +1464,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1622C7A3-F812-43D4-BDBF-973F36BAE217}">
   <dimension ref="A1:L67"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="F44" sqref="F44"/>
+    <sheetView topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="J39" sqref="J39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1496,15 +1493,15 @@
         <v>145</v>
       </c>
       <c r="E1" s="24" t="s">
+        <v>272</v>
+      </c>
+      <c r="F1" s="24" t="s">
         <v>273</v>
-      </c>
-      <c r="F1" s="24" t="s">
-        <v>274</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="28" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="B2" s="28"/>
       <c r="C2" s="28"/>
@@ -1517,10 +1514,10 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="C3" s="9" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="D3" s="20">
         <v>13163.9</v>
@@ -1537,7 +1534,7 @@
         <v>32</v>
       </c>
       <c r="B4" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="C4" s="9" t="s">
         <v>148</v>
@@ -1557,7 +1554,7 @@
         <v>56</v>
       </c>
       <c r="B5" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="C5" s="9" t="s">
         <v>148</v>
@@ -1578,10 +1575,10 @@
         <v>12</v>
       </c>
       <c r="B6" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="C6" s="9" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="D6" s="20">
         <v>6.1909999999999998</v>
@@ -1598,7 +1595,7 @@
         <v>1</v>
       </c>
       <c r="B7" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="C7" s="9" t="s">
         <v>148</v>
@@ -1627,7 +1624,7 @@
         <v>0</v>
       </c>
       <c r="E8" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="F8" s="9">
         <v>0.05</v>
@@ -1635,7 +1632,7 @@
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" s="28" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="B9" s="28"/>
       <c r="C9" s="28"/>
@@ -1648,7 +1645,7 @@
         <v>79</v>
       </c>
       <c r="B10" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="C10" s="9" t="s">
         <v>148</v>
@@ -1668,7 +1665,7 @@
         <v>80</v>
       </c>
       <c r="B11" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="C11" s="9" t="s">
         <v>148</v>
@@ -1688,7 +1685,7 @@
         <v>81</v>
       </c>
       <c r="B12" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="C12" s="9" t="s">
         <v>148</v>
@@ -1708,10 +1705,10 @@
         <v>6</v>
       </c>
       <c r="B13" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="C13" s="9" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="D13" s="20" t="s">
         <v>54</v>
@@ -1728,10 +1725,10 @@
         <v>83</v>
       </c>
       <c r="B14" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="C14" s="9" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="D14" s="20">
         <v>0</v>
@@ -1748,7 +1745,7 @@
         <v>144</v>
       </c>
       <c r="B15" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="C15" s="9" t="s">
         <v>148</v>
@@ -1766,10 +1763,10 @@
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" s="9" t="s">
+        <v>214</v>
+      </c>
+      <c r="B16" t="s">
         <v>215</v>
-      </c>
-      <c r="B16" t="s">
-        <v>216</v>
       </c>
       <c r="C16" s="9" t="s">
         <v>148</v>
@@ -1786,10 +1783,10 @@
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" s="9" t="s">
+        <v>216</v>
+      </c>
+      <c r="B17" t="s">
         <v>217</v>
-      </c>
-      <c r="B17" t="s">
-        <v>218</v>
       </c>
       <c r="C17" s="9" t="s">
         <v>148</v>
@@ -1806,10 +1803,10 @@
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" s="9" t="s">
+        <v>218</v>
+      </c>
+      <c r="B18" t="s">
         <v>219</v>
-      </c>
-      <c r="B18" t="s">
-        <v>220</v>
       </c>
       <c r="C18" s="9" t="s">
         <v>148</v>
@@ -1826,10 +1823,10 @@
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" s="9" t="s">
+        <v>220</v>
+      </c>
+      <c r="B19" t="s">
         <v>221</v>
-      </c>
-      <c r="B19" t="s">
-        <v>222</v>
       </c>
       <c r="C19" s="9" t="s">
         <v>148</v>
@@ -1846,10 +1843,10 @@
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" s="9" t="s">
+        <v>222</v>
+      </c>
+      <c r="B20" t="s">
         <v>223</v>
-      </c>
-      <c r="B20" t="s">
-        <v>224</v>
       </c>
       <c r="C20" s="9" t="s">
         <v>148</v>
@@ -1866,10 +1863,10 @@
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" s="9" t="s">
+        <v>224</v>
+      </c>
+      <c r="B21" t="s">
         <v>225</v>
-      </c>
-      <c r="B21" t="s">
-        <v>226</v>
       </c>
       <c r="C21" s="9" t="s">
         <v>148</v>
@@ -1886,10 +1883,10 @@
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" s="9" t="s">
+        <v>226</v>
+      </c>
+      <c r="B22" t="s">
         <v>227</v>
-      </c>
-      <c r="B22" t="s">
-        <v>228</v>
       </c>
       <c r="C22" s="9" t="s">
         <v>148</v>
@@ -1906,10 +1903,10 @@
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" s="9" t="s">
+        <v>228</v>
+      </c>
+      <c r="B23" t="s">
         <v>229</v>
-      </c>
-      <c r="B23" t="s">
-        <v>230</v>
       </c>
       <c r="C23" s="9" t="s">
         <v>148</v>
@@ -1926,10 +1923,10 @@
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24" s="9" t="s">
+        <v>230</v>
+      </c>
+      <c r="B24" t="s">
         <v>231</v>
-      </c>
-      <c r="B24" t="s">
-        <v>232</v>
       </c>
       <c r="C24" s="9" t="s">
         <v>148</v>
@@ -1946,10 +1943,10 @@
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" s="9" t="s">
+        <v>232</v>
+      </c>
+      <c r="B25" t="s">
         <v>233</v>
-      </c>
-      <c r="B25" t="s">
-        <v>234</v>
       </c>
       <c r="C25" s="9" t="s">
         <v>148</v>
@@ -1966,10 +1963,10 @@
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26" s="9" t="s">
+        <v>234</v>
+      </c>
+      <c r="B26" t="s">
         <v>235</v>
-      </c>
-      <c r="B26" t="s">
-        <v>236</v>
       </c>
       <c r="C26" s="9" t="s">
         <v>148</v>
@@ -1986,10 +1983,10 @@
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27" s="9" t="s">
+        <v>236</v>
+      </c>
+      <c r="B27" t="s">
         <v>237</v>
-      </c>
-      <c r="B27" t="s">
-        <v>238</v>
       </c>
       <c r="C27" s="9" t="s">
         <v>148</v>
@@ -2006,10 +2003,10 @@
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28" s="9" t="s">
+        <v>238</v>
+      </c>
+      <c r="B28" t="s">
         <v>239</v>
-      </c>
-      <c r="B28" t="s">
-        <v>240</v>
       </c>
       <c r="C28" s="9" t="s">
         <v>148</v>
@@ -2026,10 +2023,10 @@
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29" s="9" t="s">
+        <v>240</v>
+      </c>
+      <c r="B29" t="s">
         <v>241</v>
-      </c>
-      <c r="B29" t="s">
-        <v>242</v>
       </c>
       <c r="C29" s="9" t="s">
         <v>148</v>
@@ -2046,7 +2043,7 @@
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A30" s="28" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="B30" s="28"/>
       <c r="C30" s="28"/>
@@ -2059,10 +2056,10 @@
         <v>84</v>
       </c>
       <c r="B31" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="C31" s="9" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="D31" s="20">
         <v>19.655999999999999</v>
@@ -2079,10 +2076,10 @@
         <v>85</v>
       </c>
       <c r="B32" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="C32" s="9" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="D32" s="20" t="s">
         <v>54</v>
@@ -2099,10 +2096,10 @@
         <v>86</v>
       </c>
       <c r="B33" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="C33" s="9" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="D33" s="20">
         <v>187.70599999999999</v>
@@ -2119,7 +2116,7 @@
         <v>87</v>
       </c>
       <c r="B34" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="C34" s="9" t="s">
         <v>148</v>
@@ -2136,7 +2133,7 @@
     </row>
     <row r="35" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A35" s="9" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="B35" t="s">
         <v>90</v>
@@ -2180,7 +2177,7 @@
         <v>92</v>
       </c>
       <c r="B37" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="C37" s="9" t="s">
         <v>148</v>
@@ -2201,7 +2198,7 @@
         <v>16</v>
       </c>
       <c r="B38" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="C38" s="9" t="s">
         <v>148</v>
@@ -2223,7 +2220,7 @@
         <v>17</v>
       </c>
       <c r="B39" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="C39" s="9" t="s">
         <v>148</v>
@@ -2244,7 +2241,7 @@
         <v>95</v>
       </c>
       <c r="B40" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="C40" s="9" t="s">
         <v>148</v>
@@ -2388,7 +2385,7 @@
         <v>109</v>
       </c>
       <c r="C47" s="9" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="D47" s="20" t="s">
         <v>54</v>
@@ -2408,7 +2405,7 @@
         <v>111</v>
       </c>
       <c r="C48" s="9" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="D48" s="20">
         <v>872.72799999999995</v>
@@ -2489,7 +2486,7 @@
         <v>119</v>
       </c>
       <c r="C52" s="9" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="D52" s="20">
         <v>5.1710000000000003</v>
@@ -2509,7 +2506,7 @@
         <v>121</v>
       </c>
       <c r="C53" s="9" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="D53" s="20">
         <v>7.47</v>
@@ -2529,7 +2526,7 @@
         <v>123</v>
       </c>
       <c r="C54" s="9" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="D54" s="20" t="s">
         <v>54</v>
@@ -2549,7 +2546,7 @@
         <v>125</v>
       </c>
       <c r="C55" s="9" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="D55" s="20" t="s">
         <v>54</v>
@@ -2569,7 +2566,7 @@
         <v>127</v>
       </c>
       <c r="C56" s="9" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="D56" s="20" t="s">
         <v>54</v>
@@ -2589,7 +2586,7 @@
         <v>129</v>
       </c>
       <c r="C57" s="9" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="D57" s="20" t="s">
         <v>54</v>
@@ -2609,7 +2606,7 @@
         <v>131</v>
       </c>
       <c r="C58" s="9" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="D58" s="20" t="s">
         <v>54</v>
@@ -2629,7 +2626,7 @@
         <v>133</v>
       </c>
       <c r="C59" s="9" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="D59" s="20">
         <v>28.058</v>
@@ -2649,7 +2646,7 @@
         <v>135</v>
       </c>
       <c r="C60" s="9" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="D60" s="20">
         <v>49.143999999999998</v>
@@ -2669,7 +2666,7 @@
         <v>137</v>
       </c>
       <c r="C61" s="9" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="D61" s="20" t="s">
         <v>54</v>
@@ -2689,7 +2686,7 @@
         <v>139</v>
       </c>
       <c r="C62" s="9" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="D62" s="20">
         <v>565.29600000000005</v>
@@ -2709,7 +2706,7 @@
         <v>141</v>
       </c>
       <c r="C63" s="9" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="D63" s="20" t="s">
         <v>54</v>
@@ -2729,7 +2726,7 @@
         <v>143</v>
       </c>
       <c r="C64" s="9" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="D64" s="20" t="s">
         <v>54</v>
@@ -2755,7 +2752,7 @@
         <v>0</v>
       </c>
       <c r="E65" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="F65" s="9">
         <v>0.05</v>
@@ -2845,7 +2842,7 @@
         <v>56</v>
       </c>
       <c r="E1" s="14" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="F1" s="4"/>
       <c r="G1" s="4"/>
@@ -2864,7 +2861,7 @@
         <v>0</v>
       </c>
       <c r="E2" s="10" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
@@ -2881,7 +2878,7 @@
         <v>0</v>
       </c>
       <c r="E3" s="10" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
@@ -2898,7 +2895,7 @@
         <v>227.2</v>
       </c>
       <c r="E4" s="10" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
@@ -2915,7 +2912,7 @@
         <v>71.400000000000006</v>
       </c>
       <c r="E5" s="10" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
@@ -2932,7 +2929,7 @@
         <v>240.2</v>
       </c>
       <c r="E6" s="10" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
@@ -2949,7 +2946,7 @@
         <v>129.80000000000001</v>
       </c>
       <c r="E7" s="10" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
@@ -2966,7 +2963,7 @@
         <v>0</v>
       </c>
       <c r="E8" s="10" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
@@ -2983,7 +2980,7 @@
         <v>0</v>
       </c>
       <c r="E9" s="10" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
@@ -3000,7 +2997,7 @@
         <v>0</v>
       </c>
       <c r="E10" s="10" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
@@ -3017,7 +3014,7 @@
         <v>128.4</v>
       </c>
       <c r="E11" s="10" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
@@ -3034,7 +3031,7 @@
         <v>0</v>
       </c>
       <c r="E12" s="10" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
@@ -3051,7 +3048,7 @@
         <v>109.3</v>
       </c>
       <c r="E13" s="10" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
@@ -3068,7 +3065,7 @@
         <v>129.9</v>
       </c>
       <c r="E14" s="10" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
@@ -3085,7 +3082,7 @@
         <v>129.9</v>
       </c>
       <c r="E15" s="10" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
@@ -3102,7 +3099,7 @@
         <v>0</v>
       </c>
       <c r="E16" s="10" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
@@ -3119,7 +3116,7 @@
         <v>0</v>
       </c>
       <c r="E17" s="10" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
@@ -3136,7 +3133,7 @@
         <v>97.5</v>
       </c>
       <c r="E18" s="10" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
@@ -3153,7 +3150,7 @@
         <v>97.5</v>
       </c>
       <c r="E19" s="10" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
@@ -3170,7 +3167,7 @@
         <v>265.7</v>
       </c>
       <c r="E20" s="10" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
@@ -3187,7 +3184,7 @@
         <v>265.7</v>
       </c>
       <c r="E21" s="10" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.25">
@@ -3204,7 +3201,7 @@
         <v>206.4</v>
       </c>
       <c r="E22" s="10" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.25">
@@ -3221,7 +3218,7 @@
         <v>217.2</v>
       </c>
       <c r="E23" s="10" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.25">
@@ -3238,7 +3235,7 @@
         <v>6.6</v>
       </c>
       <c r="E24" s="10" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.25">
@@ -3255,7 +3252,7 @@
         <v>15</v>
       </c>
       <c r="E25" s="10" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.25">
@@ -3272,7 +3269,7 @@
         <v>7.8</v>
       </c>
       <c r="E26" s="10" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.25">
@@ -3289,7 +3286,7 @@
         <v>10</v>
       </c>
       <c r="E27" s="10" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.25">
@@ -3306,7 +3303,7 @@
         <v>0</v>
       </c>
       <c r="E28" s="10" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.25">
@@ -3323,7 +3320,7 @@
         <v>0</v>
       </c>
       <c r="E29" s="10" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.25">
@@ -3340,7 +3337,7 @@
         <v>0</v>
       </c>
       <c r="E30" s="10" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.25">
@@ -3357,7 +3354,7 @@
         <v>0</v>
       </c>
       <c r="E31" s="10" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.25">
@@ -3374,7 +3371,7 @@
         <v>2</v>
       </c>
       <c r="E32" s="10" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.25">
@@ -3391,7 +3388,7 @@
         <v>17</v>
       </c>
       <c r="E33" s="10" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.25">
@@ -3408,7 +3405,7 @@
         <v>0</v>
       </c>
       <c r="E34" s="10" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.25">
@@ -3425,7 +3422,7 @@
         <v>0.5</v>
       </c>
       <c r="E35" s="10" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.25">
@@ -3442,7 +3439,7 @@
         <v>4.4000000000000004</v>
       </c>
       <c r="E36" s="10" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.25">
@@ -3459,7 +3456,7 @@
         <v>3</v>
       </c>
       <c r="E37" s="10" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.25">
@@ -3476,7 +3473,7 @@
         <v>0</v>
       </c>
       <c r="E38" s="10" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.25">
@@ -3493,7 +3490,7 @@
         <v>1.8</v>
       </c>
       <c r="E39" s="10" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.25">
@@ -3510,7 +3507,7 @@
         <v>0</v>
       </c>
       <c r="E40" s="10" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.25">
@@ -3527,7 +3524,7 @@
         <v>0</v>
       </c>
       <c r="E41" s="10" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.25">
@@ -3544,7 +3541,7 @@
         <v>0.4</v>
       </c>
       <c r="E42" s="10" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.25">
@@ -3561,7 +3558,7 @@
         <v>6.7</v>
       </c>
       <c r="E43" s="10" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.25">
@@ -3578,7 +3575,7 @@
         <v>0.3</v>
       </c>
       <c r="E44" s="10" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.25">
@@ -3595,7 +3592,7 @@
         <v>0</v>
       </c>
       <c r="E45" s="10" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.25">
@@ -3612,7 +3609,7 @@
         <v>0</v>
       </c>
       <c r="E46" s="10" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.25">
@@ -3629,7 +3626,7 @@
         <v>0</v>
       </c>
       <c r="E47" s="10" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.25">
@@ -3646,7 +3643,7 @@
         <v>8.4</v>
       </c>
       <c r="E48" s="10" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.25">
@@ -3663,7 +3660,7 @@
         <v>6</v>
       </c>
       <c r="E49" s="10" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.25">
@@ -3680,7 +3677,7 @@
         <v>6</v>
       </c>
       <c r="E50" s="10" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.25">
@@ -3697,7 +3694,7 @@
         <v>3.6</v>
       </c>
       <c r="E51" s="10" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.25">
@@ -3714,7 +3711,7 @@
         <v>3.6</v>
       </c>
       <c r="E52" s="10" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.25">
@@ -3731,7 +3728,7 @@
         <v>0</v>
       </c>
       <c r="E53" s="10" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
     </row>
   </sheetData>
@@ -3782,7 +3779,7 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="7" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="B2" s="3" t="s">
         <v>54</v>
@@ -3795,12 +3792,12 @@
         <v>900.2</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="7" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="B3" s="3" t="s">
         <v>54</v>
@@ -3813,12 +3810,12 @@
         <v>51.3</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="7" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="B4" s="3" t="s">
         <v>54</v>
@@ -3831,12 +3828,12 @@
         <v>617.70000000000005</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="7" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="B5" s="3" t="s">
         <v>54</v>
@@ -3849,12 +3846,12 @@
         <v>51.3</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="7" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="B6" s="3" t="s">
         <v>54</v>
@@ -3867,12 +3864,12 @@
         <v>256.39999999999998</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="7" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="B7" s="3" t="s">
         <v>54</v>
@@ -3885,12 +3882,12 @@
         <v>51.3</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="7" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="B8" s="3" t="s">
         <v>54</v>
@@ -3903,12 +3900,12 @@
         <v>1493.5</v>
       </c>
       <c r="E8" s="3" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="7" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="B9" s="3" t="s">
         <v>54</v>
@@ -3921,12 +3918,12 @@
         <v>988.3</v>
       </c>
       <c r="E9" s="3" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="7" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="B10" s="3" t="s">
         <v>54</v>
@@ -3939,12 +3936,12 @@
         <v>51.3</v>
       </c>
       <c r="E10" s="3" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" s="7" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="B11" s="3" t="s">
         <v>54</v>
@@ -3957,12 +3954,12 @@
         <v>244.5</v>
       </c>
       <c r="E11" s="3" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" s="7" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="B12" s="3" t="s">
         <v>54</v>
@@ -3975,12 +3972,12 @@
         <v>51.3</v>
       </c>
       <c r="E12" s="3" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" s="7" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="B13" s="3" t="s">
         <v>54</v>
@@ -3993,12 +3990,12 @@
         <v>912.7</v>
       </c>
       <c r="E13" s="3" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" s="7" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="B14" s="3" t="s">
         <v>54</v>
@@ -4011,12 +4008,12 @@
         <v>51.3</v>
       </c>
       <c r="E14" s="3" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" s="7" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="B15" s="3" t="s">
         <v>54</v>
@@ -4029,12 +4026,12 @@
         <v>748.7</v>
       </c>
       <c r="E15" s="3" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" s="7" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="B16" s="3" t="s">
         <v>54</v>
@@ -4047,12 +4044,12 @@
         <v>51.3</v>
       </c>
       <c r="E16" s="3" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" s="7" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="B17" s="3" t="s">
         <v>54</v>
@@ -4065,12 +4062,12 @@
         <v>408.6</v>
       </c>
       <c r="E17" s="3" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" s="7" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="B18" s="3" t="s">
         <v>54</v>
@@ -4083,12 +4080,12 @@
         <v>51.3</v>
       </c>
       <c r="E18" s="3" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" s="7" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="B19" s="3" t="s">
         <v>54</v>
@@ -4101,7 +4098,7 @@
         <v>493.3</v>
       </c>
       <c r="E19" s="3" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
     </row>
   </sheetData>
@@ -4155,7 +4152,7 @@
         <v>57</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.25">
@@ -4163,7 +4160,7 @@
         <v>58</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="G3" s="1"/>
       <c r="H3" s="1"/>
@@ -4524,22 +4521,22 @@
   <sheetData>
     <row r="1" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A1" s="25" t="s">
+        <v>176</v>
+      </c>
+      <c r="B1" s="25" t="s">
+        <v>179</v>
+      </c>
+      <c r="C1" s="25" t="s">
         <v>177</v>
       </c>
-      <c r="B1" s="25" t="s">
-        <v>180</v>
-      </c>
-      <c r="C1" s="25" t="s">
+      <c r="D1" s="25" t="s">
         <v>178</v>
       </c>
-      <c r="D1" s="25" t="s">
-        <v>179</v>
-      </c>
       <c r="E1" s="24" t="s">
+        <v>272</v>
+      </c>
+      <c r="F1" s="24" t="s">
         <v>273</v>
-      </c>
-      <c r="F1" s="24" t="s">
-        <v>274</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
@@ -4656,22 +4653,22 @@
         <v>60</v>
       </c>
       <c r="B1" s="25" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="C1" s="25" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="D1" s="24" t="s">
+        <v>272</v>
+      </c>
+      <c r="E1" s="24" t="s">
         <v>273</v>
-      </c>
-      <c r="E1" s="24" t="s">
-        <v>274</v>
       </c>
       <c r="F1" s="9"/>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="B2" s="9">
         <v>53.16</v>
@@ -4688,7 +4685,7 @@
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="B3" s="9">
         <v>53.16</v>
@@ -4705,7 +4702,7 @@
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="B4" s="9">
         <v>36.36</v>
@@ -4722,7 +4719,7 @@
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="B5" s="9">
         <v>36.36</v>
@@ -4766,10 +4763,10 @@
         <v>153</v>
       </c>
       <c r="C1" s="24" t="s">
+        <v>272</v>
+      </c>
+      <c r="D1" s="24" t="s">
         <v>273</v>
-      </c>
-      <c r="D1" s="24" t="s">
-        <v>274</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
@@ -5075,8 +5072,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E500720D-7F16-4373-97E5-9F957C7E1B58}">
   <dimension ref="A1:G18"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:F1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I7" sqref="I7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -5091,22 +5088,22 @@
   <sheetData>
     <row r="1" spans="1:7" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A1" s="26" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="B1" s="26" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="C1" s="26" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="D1" s="26" t="s">
         <v>145</v>
       </c>
       <c r="E1" s="24" t="s">
+        <v>272</v>
+      </c>
+      <c r="F1" s="24" t="s">
         <v>273</v>
-      </c>
-      <c r="F1" s="24" t="s">
-        <v>274</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
@@ -5117,7 +5114,7 @@
         <v>155</v>
       </c>
       <c r="C2" s="9" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="D2" s="19" t="s">
         <v>54</v>
@@ -5137,19 +5134,19 @@
         <v>78</v>
       </c>
       <c r="B3" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C3" s="9" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="D3" s="19" t="s">
         <v>54</v>
       </c>
-      <c r="E3" s="9">
+      <c r="E3" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="F3" s="9">
         <v>1</v>
-      </c>
-      <c r="F3" s="9" t="s">
-        <v>54</v>
       </c>
       <c r="G3" t="s">
         <v>156</v>
@@ -5160,10 +5157,10 @@
         <v>79</v>
       </c>
       <c r="B4" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C4" s="9" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="D4" s="19">
         <v>0.105</v>
@@ -5183,10 +5180,10 @@
         <v>80</v>
       </c>
       <c r="B5" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C5" s="9" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="D5" s="19" t="s">
         <v>54</v>
@@ -5206,10 +5203,10 @@
         <v>81</v>
       </c>
       <c r="B6" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="C6" s="9" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="D6" s="19">
         <v>0.20699999999999999</v>
@@ -5229,10 +5226,10 @@
         <v>82</v>
       </c>
       <c r="B7" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C7" s="9" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="D7" s="19">
         <v>0.10199999999999999</v>
@@ -5252,7 +5249,7 @@
         <v>83</v>
       </c>
       <c r="B8" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C8" s="9" t="s">
         <v>148</v>
@@ -5275,7 +5272,7 @@
         <v>84</v>
       </c>
       <c r="B9" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C9" s="9" t="s">
         <v>148</v>
@@ -5298,7 +5295,7 @@
         <v>85</v>
       </c>
       <c r="B10" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="C10" s="9" t="s">
         <v>148</v>
@@ -5321,19 +5318,19 @@
         <v>86</v>
       </c>
       <c r="B11" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="C11" s="9" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="D11" s="19">
         <v>53.555999999999997</v>
       </c>
-      <c r="E11" s="9">
+      <c r="E11" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="F11" s="9">
         <v>1</v>
-      </c>
-      <c r="F11" s="9" t="s">
-        <v>54</v>
       </c>
       <c r="G11" t="s">
         <v>156</v>
@@ -5344,19 +5341,19 @@
         <v>87</v>
       </c>
       <c r="B12" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="C12" s="9" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="D12" s="19" t="s">
         <v>54</v>
       </c>
-      <c r="E12" s="9">
+      <c r="E12" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="F12" s="9">
         <v>1</v>
-      </c>
-      <c r="F12" s="9" t="s">
-        <v>54</v>
       </c>
       <c r="G12" t="s">
         <v>156</v>
@@ -5367,7 +5364,7 @@
         <v>88</v>
       </c>
       <c r="B13" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="C13" s="9" t="s">
         <v>148</v>
@@ -5390,10 +5387,10 @@
         <v>89</v>
       </c>
       <c r="B14" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="C14" s="9" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="D14" s="19" t="s">
         <v>54</v>
@@ -5413,19 +5410,19 @@
         <v>91</v>
       </c>
       <c r="B15" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="C15" s="9" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="D15" s="19" t="s">
         <v>54</v>
       </c>
-      <c r="E15" s="9">
+      <c r="E15" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="F15" s="9">
         <v>1</v>
-      </c>
-      <c r="F15" s="9" t="s">
-        <v>157</v>
       </c>
       <c r="G15" t="s">
         <v>156</v>
@@ -5436,19 +5433,19 @@
         <v>92</v>
       </c>
       <c r="B16" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="C16" s="9" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="D16" s="19">
         <v>4.0910000000000002</v>
       </c>
-      <c r="E16" s="9">
+      <c r="E16" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="F16" s="9">
         <v>1</v>
-      </c>
-      <c r="F16" s="9" t="s">
-        <v>157</v>
       </c>
       <c r="G16" t="s">
         <v>156</v>
@@ -5459,10 +5456,10 @@
         <v>93</v>
       </c>
       <c r="B17" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="C17" s="9" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="D17" s="19">
         <v>0.182</v>
@@ -5482,7 +5479,7 @@
         <v>94</v>
       </c>
       <c r="B18" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="C18" s="9" t="s">
         <v>148</v>

--- a/assets/fleet/9245263_sofia/test/SSS_Sofia_test2.xlsx
+++ b/assets/fleet/9245263_sofia/test/SSS_Sofia_test2.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\MERENKOV\Desktop\Капитан\sss\assets\fleet\9245263_sofia\test\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9B86AA7A-A2E2-4289-9003-5917D0EA96AA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{59AFAE94-19DD-406B-9D31-6944C56366D8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="903" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="903" activeTab="9" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="General" sheetId="59" r:id="rId1"/>
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="589" uniqueCount="280">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="592" uniqueCount="281">
   <si>
     <t>Форпик</t>
   </si>
@@ -883,6 +883,9 @@
   </si>
   <si>
     <t>SFmax_perc</t>
+  </si>
+  <si>
+    <t>Поправка к поперечной метацентрической высоте</t>
   </si>
 </sst>
 </file>
@@ -983,7 +986,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="2"/>
     <xf numFmtId="3" fontId="4" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyAlignment="1">
@@ -1063,6 +1066,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1462,10 +1468,10 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1622C7A3-F812-43D4-BDBF-973F36BAE217}">
-  <dimension ref="A1:L67"/>
+  <dimension ref="A1:L68"/>
   <sheetViews>
-    <sheetView topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="J39" sqref="J39"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="D68" sqref="D68"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -2796,6 +2802,27 @@
       </c>
       <c r="F67" s="9">
         <v>0.5</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A68" s="9">
+        <v>95</v>
+      </c>
+      <c r="B68" t="s">
+        <v>280</v>
+      </c>
+      <c r="C68" s="9" t="s">
+        <v>148</v>
+      </c>
+      <c r="D68" s="29">
+        <f>D38+D39</f>
+        <v>2.0806903729138022E-2</v>
+      </c>
+      <c r="E68" s="9">
+        <v>2</v>
+      </c>
+      <c r="F68" s="9" t="s">
+        <v>54</v>
       </c>
     </row>
   </sheetData>
@@ -5072,7 +5099,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E500720D-7F16-4373-97E5-9F957C7E1B58}">
   <dimension ref="A1:G18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="I7" sqref="I7"/>
     </sheetView>
   </sheetViews>

--- a/assets/fleet/9245263_sofia/test/SSS_Sofia_test2.xlsx
+++ b/assets/fleet/9245263_sofia/test/SSS_Sofia_test2.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\MERENKOV\Desktop\Капитан\sss\assets\fleet\9245263_sofia\test\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{59AFAE94-19DD-406B-9D31-6944C56366D8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{638DC193-F43D-447C-BCE7-3A6341554FBB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="903" activeTab="9" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="903" activeTab="9" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="General" sheetId="59" r:id="rId1"/>
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="592" uniqueCount="281">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="594" uniqueCount="281">
   <si>
     <t>Форпик</t>
   </si>
@@ -1065,10 +1065,10 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1471,7 +1471,7 @@
   <dimension ref="A1:L68"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="D68" sqref="D68"/>
+      <selection activeCell="E40" sqref="E40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1506,14 +1506,14 @@
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" s="28" t="s">
+      <c r="A2" s="29" t="s">
         <v>211</v>
       </c>
-      <c r="B2" s="28"/>
-      <c r="C2" s="28"/>
-      <c r="D2" s="28"/>
-      <c r="E2" s="28"/>
-      <c r="F2" s="28"/>
+      <c r="B2" s="29"/>
+      <c r="C2" s="29"/>
+      <c r="D2" s="29"/>
+      <c r="E2" s="29"/>
+      <c r="F2" s="29"/>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="9">
@@ -1637,14 +1637,14 @@
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A9" s="28" t="s">
+      <c r="A9" s="29" t="s">
         <v>212</v>
       </c>
-      <c r="B9" s="28"/>
-      <c r="C9" s="28"/>
-      <c r="D9" s="28"/>
-      <c r="E9" s="28"/>
-      <c r="F9" s="28"/>
+      <c r="B9" s="29"/>
+      <c r="C9" s="29"/>
+      <c r="D9" s="29"/>
+      <c r="E9" s="29"/>
+      <c r="F9" s="29"/>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" s="9" t="s">
@@ -2048,14 +2048,14 @@
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A30" s="28" t="s">
+      <c r="A30" s="29" t="s">
         <v>213</v>
       </c>
-      <c r="B30" s="28"/>
-      <c r="C30" s="28"/>
-      <c r="D30" s="28"/>
-      <c r="E30" s="28"/>
-      <c r="F30" s="28"/>
+      <c r="B30" s="29"/>
+      <c r="C30" s="29"/>
+      <c r="D30" s="29"/>
+      <c r="E30" s="29"/>
+      <c r="F30" s="29"/>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A31" s="9" t="s">
@@ -2213,8 +2213,8 @@
         <f>(94.7+17.1+10.8+14.9+101.8)/D3</f>
         <v>1.8178503331079697E-2</v>
       </c>
-      <c r="E38" s="9">
-        <v>2</v>
+      <c r="E38" s="9" t="s">
+        <v>54</v>
       </c>
       <c r="F38" s="9" t="s">
         <v>54</v>
@@ -2235,8 +2235,8 @@
         <f>34.6/D3</f>
         <v>2.6284003980583262E-3</v>
       </c>
-      <c r="E39" s="9">
-        <v>2</v>
+      <c r="E39" s="9" t="s">
+        <v>54</v>
       </c>
       <c r="F39" s="9" t="s">
         <v>54</v>
@@ -2814,7 +2814,7 @@
       <c r="C68" s="9" t="s">
         <v>148</v>
       </c>
-      <c r="D68" s="29">
+      <c r="D68" s="28">
         <f>D38+D39</f>
         <v>2.0806903729138022E-2</v>
       </c>

--- a/assets/fleet/9245263_sofia/test/SSS_Sofia_test2.xlsx
+++ b/assets/fleet/9245263_sofia/test/SSS_Sofia_test2.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\MERENKOV\Desktop\Капитан\sss\assets\fleet\9245263_sofia\test\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{638DC193-F43D-447C-BCE7-3A6341554FBB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DCA8CE15-E0C2-4D65-81A5-D33735186C82}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="903" activeTab="9" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="903" activeTab="9" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="General" sheetId="59" r:id="rId1"/>
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="594" uniqueCount="281">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="596" uniqueCount="281">
   <si>
     <t>Форпик</t>
   </si>
@@ -986,7 +986,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="2"/>
     <xf numFmtId="3" fontId="4" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyAlignment="1">
@@ -1070,6 +1070,9 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="5">
@@ -1392,7 +1395,7 @@
   <dimension ref="A1:B6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C23" sqref="C23"/>
+      <selection activeCell="B30" sqref="B30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1442,7 +1445,7 @@
       </c>
     </row>
     <row r="6" spans="1:2" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
+      <c r="A6" s="30" t="s">
         <v>246</v>
       </c>
       <c r="B6" s="11" t="s">
@@ -1470,8 +1473,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1622C7A3-F812-43D4-BDBF-973F36BAE217}">
   <dimension ref="A1:L68"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="E40" sqref="E40"/>
+    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
+      <selection activeCell="D67" sqref="D67"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -2494,8 +2497,8 @@
       <c r="C52" s="9" t="s">
         <v>184</v>
       </c>
-      <c r="D52" s="20">
-        <v>5.1710000000000003</v>
+      <c r="D52" s="20" t="s">
+        <v>54</v>
       </c>
       <c r="E52" s="9" t="s">
         <v>54</v>
@@ -2514,8 +2517,8 @@
       <c r="C53" s="9" t="s">
         <v>184</v>
       </c>
-      <c r="D53" s="20">
-        <v>7.47</v>
+      <c r="D53" s="20" t="s">
+        <v>54</v>
       </c>
       <c r="E53" s="9" t="s">
         <v>54</v>
@@ -2775,7 +2778,7 @@
         <v>148</v>
       </c>
       <c r="D66" s="20">
-        <v>63.933</v>
+        <v>61.433999999999997</v>
       </c>
       <c r="E66" s="9">
         <v>1</v>
@@ -5100,7 +5103,7 @@
   <dimension ref="A1:G18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I7" sqref="I7"/>
+      <selection activeCell="B3" sqref="B3:D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -5282,7 +5285,7 @@
         <v>148</v>
       </c>
       <c r="D8" s="19">
-        <v>0.47199999999999998</v>
+        <v>0.91379999999999995</v>
       </c>
       <c r="E8" s="9">
         <v>5</v>
@@ -5397,7 +5400,7 @@
         <v>148</v>
       </c>
       <c r="D13" s="19">
-        <v>5.7099999999999998E-2</v>
+        <v>0.57099999999999995</v>
       </c>
       <c r="E13" s="9">
         <v>1</v>

--- a/assets/fleet/9245263_sofia/test/SSS_Sofia_test2.xlsx
+++ b/assets/fleet/9245263_sofia/test/SSS_Sofia_test2.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\MERENKOV\Desktop\Капитан\sss\assets\fleet\9245263_sofia\test\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DCA8CE15-E0C2-4D65-81A5-D33735186C82}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BC478BBE-8A6E-4420-9042-6A292C04796B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="903" activeTab="9" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="903" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="General" sheetId="59" r:id="rId1"/>
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="596" uniqueCount="281">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="548" uniqueCount="267">
   <si>
     <t>Форпик</t>
   </si>
@@ -795,60 +795,6 @@
     <t>yes</t>
   </si>
   <si>
-    <t>H101</t>
-  </si>
-  <si>
-    <t>H102</t>
-  </si>
-  <si>
-    <t>H103</t>
-  </si>
-  <si>
-    <t>H104</t>
-  </si>
-  <si>
-    <t>P101</t>
-  </si>
-  <si>
-    <t>P102</t>
-  </si>
-  <si>
-    <t>P103</t>
-  </si>
-  <si>
-    <t>H201</t>
-  </si>
-  <si>
-    <t>H202</t>
-  </si>
-  <si>
-    <t>H203</t>
-  </si>
-  <si>
-    <t>H204</t>
-  </si>
-  <si>
-    <t>H205</t>
-  </si>
-  <si>
-    <t>H206</t>
-  </si>
-  <si>
-    <t>P201</t>
-  </si>
-  <si>
-    <t>P202</t>
-  </si>
-  <si>
-    <t>P203</t>
-  </si>
-  <si>
-    <t>P204</t>
-  </si>
-  <si>
-    <t>P205</t>
-  </si>
-  <si>
     <t>м∙град</t>
   </si>
   <si>
@@ -886,6 +832,18 @@
   </si>
   <si>
     <t>Поправка к поперечной метацентрической высоте</t>
+  </si>
+  <si>
+    <t>1001</t>
+  </si>
+  <si>
+    <t>Трюм №1</t>
+  </si>
+  <si>
+    <t>1002</t>
+  </si>
+  <si>
+    <t>Трюм №2</t>
   </si>
 </sst>
 </file>
@@ -1068,11 +1026,11 @@
     <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="5">
@@ -1445,7 +1403,7 @@
       </c>
     </row>
     <row r="6" spans="1:2" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A6" s="30" t="s">
+      <c r="A6" s="29" t="s">
         <v>246</v>
       </c>
       <c r="B6" s="11" t="s">
@@ -1473,8 +1431,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1622C7A3-F812-43D4-BDBF-973F36BAE217}">
   <dimension ref="A1:L68"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
-      <selection activeCell="D67" sqref="D67"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H62" sqref="H62"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1502,21 +1460,21 @@
         <v>145</v>
       </c>
       <c r="E1" s="24" t="s">
-        <v>272</v>
+        <v>254</v>
       </c>
       <c r="F1" s="24" t="s">
-        <v>273</v>
+        <v>255</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" s="29" t="s">
+      <c r="A2" s="30" t="s">
         <v>211</v>
       </c>
-      <c r="B2" s="29"/>
-      <c r="C2" s="29"/>
-      <c r="D2" s="29"/>
-      <c r="E2" s="29"/>
-      <c r="F2" s="29"/>
+      <c r="B2" s="30"/>
+      <c r="C2" s="30"/>
+      <c r="D2" s="30"/>
+      <c r="E2" s="30"/>
+      <c r="F2" s="30"/>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="9">
@@ -1633,28 +1591,28 @@
         <v>0</v>
       </c>
       <c r="E8" s="9" t="s">
-        <v>274</v>
+        <v>256</v>
       </c>
       <c r="F8" s="9">
         <v>0.05</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A9" s="29" t="s">
+      <c r="A9" s="30" t="s">
         <v>212</v>
       </c>
-      <c r="B9" s="29"/>
-      <c r="C9" s="29"/>
-      <c r="D9" s="29"/>
-      <c r="E9" s="29"/>
-      <c r="F9" s="29"/>
+      <c r="B9" s="30"/>
+      <c r="C9" s="30"/>
+      <c r="D9" s="30"/>
+      <c r="E9" s="30"/>
+      <c r="F9" s="30"/>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" s="9" t="s">
         <v>79</v>
       </c>
       <c r="B10" t="s">
-        <v>271</v>
+        <v>253</v>
       </c>
       <c r="C10" s="9" t="s">
         <v>148</v>
@@ -2051,14 +2009,14 @@
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A30" s="29" t="s">
+      <c r="A30" s="30" t="s">
         <v>213</v>
       </c>
-      <c r="B30" s="29"/>
-      <c r="C30" s="29"/>
-      <c r="D30" s="29"/>
-      <c r="E30" s="29"/>
-      <c r="F30" s="29"/>
+      <c r="B30" s="30"/>
+      <c r="C30" s="30"/>
+      <c r="D30" s="30"/>
+      <c r="E30" s="30"/>
+      <c r="F30" s="30"/>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A31" s="9" t="s">
@@ -2186,7 +2144,7 @@
         <v>92</v>
       </c>
       <c r="B37" t="s">
-        <v>269</v>
+        <v>251</v>
       </c>
       <c r="C37" s="9" t="s">
         <v>148</v>
@@ -2250,7 +2208,7 @@
         <v>95</v>
       </c>
       <c r="B40" t="s">
-        <v>270</v>
+        <v>252</v>
       </c>
       <c r="C40" s="9" t="s">
         <v>148</v>
@@ -2761,7 +2719,7 @@
         <v>0</v>
       </c>
       <c r="E65" s="9" t="s">
-        <v>274</v>
+        <v>256</v>
       </c>
       <c r="F65" s="9">
         <v>0.05</v>
@@ -2812,7 +2770,7 @@
         <v>95</v>
       </c>
       <c r="B68" t="s">
-        <v>280</v>
+        <v>262</v>
       </c>
       <c r="C68" s="9" t="s">
         <v>148</v>
@@ -3775,10 +3733,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DD512CFD-1E2E-4C9F-AF20-D54F57AEF969}">
-  <dimension ref="A1:E19"/>
+  <dimension ref="A1:O19"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2:D19"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="J19" sqref="J19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="7.75" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3790,7 +3748,7 @@
     <col min="6" max="16384" width="7.75" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1" s="7" t="s">
         <v>3</v>
       </c>
@@ -3807,329 +3765,107 @@
         <v>146</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2" s="7" t="s">
-        <v>250</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>54</v>
+        <v>263</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>264</v>
       </c>
       <c r="C2" s="8">
-        <f>1/0.543</f>
-        <v>1.8416206261510129</v>
-      </c>
-      <c r="D2" s="5">
-        <v>900.2</v>
+        <f>1/0.54449</f>
+        <v>1.8365810207717312</v>
+      </c>
+      <c r="D2" s="3">
+        <v>3421.7</v>
       </c>
       <c r="E2" s="3" t="s">
         <v>249</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A3" s="7" t="s">
-        <v>254</v>
+        <v>265</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>54</v>
+        <v>266</v>
       </c>
       <c r="C3" s="8">
-        <f t="shared" ref="C3:C19" si="0">1/0.543</f>
-        <v>1.8416206261510129</v>
-      </c>
-      <c r="D3" s="5">
-        <v>51.3</v>
+        <f>1/0.54449</f>
+        <v>1.8365810207717312</v>
+      </c>
+      <c r="D3" s="3">
+        <v>4052.6</v>
       </c>
       <c r="E3" s="3" t="s">
         <v>249</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" s="7" t="s">
-        <v>251</v>
-      </c>
-      <c r="B4" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="C4" s="8">
-        <f t="shared" si="0"/>
-        <v>1.8416206261510129</v>
-      </c>
-      <c r="D4" s="3">
-        <v>617.70000000000005</v>
-      </c>
-      <c r="E4" s="3" t="s">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" s="7" t="s">
-        <v>255</v>
-      </c>
-      <c r="B5" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="C5" s="8">
-        <f t="shared" si="0"/>
-        <v>1.8416206261510129</v>
-      </c>
-      <c r="D5" s="3">
-        <v>51.3</v>
-      </c>
-      <c r="E5" s="3" t="s">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" s="7" t="s">
-        <v>252</v>
-      </c>
-      <c r="B6" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="C6" s="8">
-        <f t="shared" si="0"/>
-        <v>1.8416206261510129</v>
-      </c>
-      <c r="D6" s="3">
-        <v>256.39999999999998</v>
-      </c>
-      <c r="E6" s="3" t="s">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7" s="7" t="s">
-        <v>256</v>
-      </c>
-      <c r="B7" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="C7" s="8">
-        <f t="shared" si="0"/>
-        <v>1.8416206261510129</v>
-      </c>
-      <c r="D7" s="3">
-        <v>51.3</v>
-      </c>
-      <c r="E7" s="3" t="s">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A8" s="7" t="s">
-        <v>253</v>
-      </c>
-      <c r="B8" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="C8" s="8">
-        <f t="shared" si="0"/>
-        <v>1.8416206261510129</v>
-      </c>
-      <c r="D8" s="3">
-        <v>1493.5</v>
-      </c>
-      <c r="E8" s="3" t="s">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A9" s="7" t="s">
-        <v>257</v>
-      </c>
-      <c r="B9" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="C9" s="8">
-        <f t="shared" si="0"/>
-        <v>1.8416206261510129</v>
-      </c>
-      <c r="D9" s="3">
-        <v>988.3</v>
-      </c>
-      <c r="E9" s="3" t="s">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A10" s="7" t="s">
-        <v>263</v>
-      </c>
-      <c r="B10" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="C10" s="8">
-        <f t="shared" si="0"/>
-        <v>1.8416206261510129</v>
-      </c>
-      <c r="D10" s="3">
-        <v>51.3</v>
-      </c>
-      <c r="E10" s="3" t="s">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A11" s="7" t="s">
-        <v>258</v>
-      </c>
-      <c r="B11" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="C11" s="8">
-        <f t="shared" si="0"/>
-        <v>1.8416206261510129</v>
-      </c>
-      <c r="D11" s="3">
-        <v>244.5</v>
-      </c>
-      <c r="E11" s="3" t="s">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A12" s="7" t="s">
-        <v>264</v>
-      </c>
-      <c r="B12" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="C12" s="8">
-        <f t="shared" si="0"/>
-        <v>1.8416206261510129</v>
-      </c>
-      <c r="D12" s="3">
-        <v>51.3</v>
-      </c>
-      <c r="E12" s="3" t="s">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A13" s="7" t="s">
-        <v>259</v>
-      </c>
-      <c r="B13" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="C13" s="8">
-        <f t="shared" si="0"/>
-        <v>1.8416206261510129</v>
-      </c>
-      <c r="D13" s="3">
-        <v>912.7</v>
-      </c>
-      <c r="E13" s="3" t="s">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A14" s="7" t="s">
-        <v>265</v>
-      </c>
-      <c r="B14" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="C14" s="8">
-        <f t="shared" si="0"/>
-        <v>1.8416206261510129</v>
-      </c>
-      <c r="D14" s="3">
-        <v>51.3</v>
-      </c>
-      <c r="E14" s="3" t="s">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A15" s="7" t="s">
-        <v>260</v>
-      </c>
-      <c r="B15" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="C15" s="8">
-        <f t="shared" si="0"/>
-        <v>1.8416206261510129</v>
-      </c>
-      <c r="D15" s="3">
-        <v>748.7</v>
-      </c>
-      <c r="E15" s="3" t="s">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A16" s="7" t="s">
-        <v>266</v>
-      </c>
-      <c r="B16" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="C16" s="8">
-        <f t="shared" si="0"/>
-        <v>1.8416206261510129</v>
-      </c>
-      <c r="D16" s="3">
-        <v>51.3</v>
-      </c>
-      <c r="E16" s="3" t="s">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A17" s="7" t="s">
-        <v>261</v>
-      </c>
-      <c r="B17" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="C17" s="8">
-        <f t="shared" si="0"/>
-        <v>1.8416206261510129</v>
-      </c>
-      <c r="D17" s="3">
-        <v>408.6</v>
-      </c>
-      <c r="E17" s="3" t="s">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A18" s="7" t="s">
-        <v>267</v>
-      </c>
-      <c r="B18" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="C18" s="8">
-        <f t="shared" si="0"/>
-        <v>1.8416206261510129</v>
-      </c>
-      <c r="D18" s="3">
-        <v>51.3</v>
-      </c>
-      <c r="E18" s="3" t="s">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A19" s="7" t="s">
-        <v>262</v>
-      </c>
-      <c r="B19" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="C19" s="8">
-        <f t="shared" si="0"/>
-        <v>1.8416206261510129</v>
-      </c>
-      <c r="D19" s="3">
-        <v>493.3</v>
-      </c>
-      <c r="E19" s="3" t="s">
-        <v>249</v>
-      </c>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="C4" s="8"/>
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="C5" s="8"/>
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="C6" s="8"/>
+      <c r="J6" s="5"/>
+    </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="C7" s="8"/>
+      <c r="J7" s="5"/>
+      <c r="O7" s="3"/>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="C8" s="8"/>
+      <c r="J8" s="3"/>
+      <c r="O8" s="3"/>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="C9" s="8"/>
+      <c r="J9" s="3"/>
+      <c r="O9" s="3"/>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="C10" s="8"/>
+      <c r="J10" s="3"/>
+      <c r="O10" s="3"/>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="C11" s="8"/>
+      <c r="J11" s="3"/>
+      <c r="O11" s="3"/>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="C12" s="8"/>
+      <c r="J12" s="3"/>
+      <c r="O12" s="3"/>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="C13" s="8"/>
+      <c r="O13" s="3"/>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="C14" s="8"/>
+      <c r="O14" s="3"/>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="C15" s="8"/>
+      <c r="O15" s="3"/>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="C16" s="8"/>
+      <c r="O16" s="3"/>
+    </row>
+    <row r="17" spans="3:15" x14ac:dyDescent="0.25">
+      <c r="C17" s="8"/>
+      <c r="O17" s="3"/>
+    </row>
+    <row r="18" spans="3:15" x14ac:dyDescent="0.25">
+      <c r="C18" s="8"/>
+    </row>
+    <row r="19" spans="3:15" x14ac:dyDescent="0.25">
+      <c r="C19" s="8"/>
     </row>
   </sheetData>
   <phoneticPr fontId="5" type="noConversion"/>
@@ -4563,10 +4299,10 @@
         <v>178</v>
       </c>
       <c r="E1" s="24" t="s">
-        <v>272</v>
+        <v>254</v>
       </c>
       <c r="F1" s="24" t="s">
-        <v>273</v>
+        <v>255</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
@@ -4686,19 +4422,19 @@
         <v>176</v>
       </c>
       <c r="C1" s="25" t="s">
-        <v>275</v>
+        <v>257</v>
       </c>
       <c r="D1" s="24" t="s">
-        <v>272</v>
+        <v>254</v>
       </c>
       <c r="E1" s="24" t="s">
-        <v>273</v>
+        <v>255</v>
       </c>
       <c r="F1" s="9"/>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>276</v>
+        <v>258</v>
       </c>
       <c r="B2" s="9">
         <v>53.16</v>
@@ -4715,7 +4451,7 @@
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>277</v>
+        <v>259</v>
       </c>
       <c r="B3" s="9">
         <v>53.16</v>
@@ -4732,7 +4468,7 @@
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>278</v>
+        <v>260</v>
       </c>
       <c r="B4" s="9">
         <v>36.36</v>
@@ -4749,7 +4485,7 @@
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>279</v>
+        <v>261</v>
       </c>
       <c r="B5" s="9">
         <v>36.36</v>
@@ -4793,10 +4529,10 @@
         <v>153</v>
       </c>
       <c r="C1" s="24" t="s">
-        <v>272</v>
+        <v>254</v>
       </c>
       <c r="D1" s="24" t="s">
-        <v>273</v>
+        <v>255</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
@@ -5130,10 +4866,10 @@
         <v>145</v>
       </c>
       <c r="E1" s="24" t="s">
-        <v>272</v>
+        <v>254</v>
       </c>
       <c r="F1" s="24" t="s">
-        <v>273</v>
+        <v>255</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
@@ -5489,7 +5225,7 @@
         <v>171</v>
       </c>
       <c r="C17" s="9" t="s">
-        <v>268</v>
+        <v>250</v>
       </c>
       <c r="D17" s="19">
         <v>0.182</v>

--- a/assets/fleet/9245263_sofia/test/SSS_Sofia_test2.xlsx
+++ b/assets/fleet/9245263_sofia/test/SSS_Sofia_test2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\MERENKOV\Desktop\Капитан\sss\assets\fleet\9245263_sofia\test\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BC478BBE-8A6E-4420-9042-6A292C04796B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8E59B6F8-EBC0-4B29-A58C-5DB9E148945E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="903" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -3736,7 +3736,7 @@
   <dimension ref="A1:O19"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="J19" sqref="J19"/>
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="7.75" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3773,8 +3773,8 @@
         <v>264</v>
       </c>
       <c r="C2" s="8">
-        <f>1/0.54449</f>
-        <v>1.8365810207717312</v>
+        <f>1/0.543295147</f>
+        <v>1.8406201592667639</v>
       </c>
       <c r="D2" s="3">
         <v>3421.7</v>
@@ -3791,8 +3791,8 @@
         <v>266</v>
       </c>
       <c r="C3" s="8">
-        <f>1/0.54449</f>
-        <v>1.8365810207717312</v>
+        <f>1/0.543295147</f>
+        <v>1.8406201592667639</v>
       </c>
       <c r="D3" s="3">
         <v>4052.6</v>
